--- a/doc/2、计划/功能点估算简表V1.0.xlsx
+++ b/doc/2、计划/功能点估算简表V1.0.xlsx
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="116">
   <si>
     <t>计算未调整的功能点（UFP)</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -516,10 +516,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>子频道删</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>组合频道信息表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -545,6 +541,38 @@
   </si>
   <si>
     <t>客户管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲库管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲库管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲库信息表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲上传</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子频道删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息修改</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1360,28 +1388,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1406,6 +1413,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8245,7 +8273,7 @@
   <dimension ref="B1:R66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="57" workbookViewId="0">
-      <selection activeCell="S43" sqref="S43"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -8289,66 +8317,66 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="2:18" ht="13.5">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="2:18" ht="14.25">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="M4" s="32" t="s">
+      <c r="K4" s="35"/>
+      <c r="M4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
     </row>
     <row r="5" spans="2:18" ht="13.5">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
       <c r="K5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="M5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31" t="s">
+      <c r="N5" s="42"/>
+      <c r="O5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="31"/>
+      <c r="P5" s="42"/>
       <c r="Q5" s="16" t="s">
         <v>14</v>
       </c>
@@ -8395,10 +8423,10 @@
       <c r="R6" s="5"/>
     </row>
     <row r="7" spans="2:18" ht="13.5">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="27" t="s">
         <v>36</v>
       </c>
@@ -8566,8 +8594,8 @@
       <c r="R11" s="5"/>
     </row>
     <row r="12" spans="2:18" ht="13.5">
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="9" t="s">
@@ -8733,8 +8761,8 @@
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="2:18" ht="13.5">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
       <c r="F17" s="9" t="s">
@@ -8853,12 +8881,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M20" s="28" t="s">
+      <c r="M20" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="30"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="38"/>
       <c r="Q20" s="5">
         <f>SUM(Q6:Q19)</f>
         <v>35</v>
@@ -8897,8 +8925,8 @@
       <c r="R21" s="17"/>
     </row>
     <row r="22" spans="2:18" ht="13.5">
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
       <c r="F22" s="9" t="s">
@@ -8945,15 +8973,15 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M23" s="31" t="s">
+      <c r="M23" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31">
+      <c r="N23" s="42"/>
+      <c r="O23" s="42">
         <f>ROUND(D66*(0.65+0.01*Q20),0)</f>
         <v>315</v>
       </c>
-      <c r="P23" s="31"/>
+      <c r="P23" s="42"/>
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
     </row>
@@ -9023,8 +9051,8 @@
       </c>
     </row>
     <row r="27" spans="2:18" ht="13.5">
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
       <c r="F27" s="9"/>
@@ -9130,8 +9158,8 @@
       </c>
     </row>
     <row r="32" spans="2:18" ht="13.5">
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
       <c r="F32" s="9"/>
@@ -9245,7 +9273,7 @@
       <c r="E37" s="13"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="H37" s="18"/>
       <c r="I37" s="26" t="s">
@@ -9268,7 +9296,7 @@
         <v>96</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H38" s="18"/>
       <c r="I38" s="26" t="s">
@@ -9289,7 +9317,7 @@
       <c r="E39" s="20"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="26" t="s">
@@ -9310,7 +9338,7 @@
       <c r="E40" s="20"/>
       <c r="F40" s="19"/>
       <c r="G40" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="26" t="s">
@@ -9331,7 +9359,7 @@
       <c r="E41" s="20"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H41" s="18"/>
       <c r="I41" s="26" t="s">
@@ -9352,7 +9380,7 @@
       <c r="E42" s="20"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H42" s="18"/>
       <c r="I42" s="26" t="s">
@@ -9369,13 +9397,15 @@
     <row r="43" spans="2:11" ht="13.5">
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
-      <c r="D43" s="24"/>
+      <c r="D43" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="E43" s="25"/>
       <c r="F43" s="24" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="26" t="s">
@@ -9396,7 +9426,7 @@
       <c r="E44" s="25"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H44" s="22"/>
       <c r="I44" s="26" t="s">
@@ -9417,7 +9447,7 @@
       <c r="E45" s="25"/>
       <c r="F45" s="24"/>
       <c r="G45" s="24" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="H45" s="22"/>
       <c r="I45" s="26" t="s">
@@ -9438,7 +9468,7 @@
       <c r="E46" s="25"/>
       <c r="F46" s="24"/>
       <c r="G46" s="24" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="26" t="s">
@@ -9459,7 +9489,7 @@
       <c r="E47" s="25"/>
       <c r="F47" s="24"/>
       <c r="G47" s="24" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H47" s="22"/>
       <c r="I47" s="26" t="s">
@@ -9477,7 +9507,7 @@
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="9" t="s">
@@ -9583,10 +9613,10 @@
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.5">
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
       <c r="D53" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="9" t="s">
@@ -9692,12 +9722,12 @@
       </c>
     </row>
     <row r="58" spans="2:11" ht="13.5">
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="28" t="s">
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E58" s="30"/>
+      <c r="E58" s="38"/>
       <c r="F58" s="9" t="s">
         <v>87</v>
       </c>
@@ -9801,10 +9831,10 @@
       </c>
     </row>
     <row r="63" spans="2:11" ht="13.5">
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="30"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="38"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9" t="s">
         <v>71</v>
@@ -9864,10 +9894,10 @@
       </c>
     </row>
     <row r="66" spans="2:11" ht="13.5" hidden="1">
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C66" s="35"/>
+      <c r="C66" s="39"/>
       <c r="D66" s="14">
         <f>SUM(K7:K66)</f>
         <v>315</v>
@@ -9887,18 +9917,40 @@
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
   <mergeCells count="54">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="M4:R4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B66:C66"/>
@@ -9907,40 +9959,18 @@
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B58:C58"/>
-    <mergeCell ref="M4:R4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">

--- a/doc/2、计划/功能点估算简表V1.0.xlsx
+++ b/doc/2、计划/功能点估算简表V1.0.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="\a">#REF!</definedName>
     <definedName name="\i">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'第3章 范围分解与功能点估计'!$B$6:$K$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'第3章 范围分解与功能点估计'!$B$6:$L$88</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
     <definedName name="A">#REF!</definedName>
     <definedName name="CellSum当初MSK">[1]ＡＰ用山積表!$H$17</definedName>
@@ -92,7 +92,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="Q5" authorId="0" shapeId="0">
+    <comment ref="R5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="136">
   <si>
     <t>计算未调整的功能点（UFP)</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -327,104 +327,56 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>修改</t>
+    <t>用户删除</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限信息表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志信息表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ</t>
+  </si>
+  <si>
+    <t>打印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂</t>
   </si>
   <si>
     <t>查询</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>用户删除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限信息表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志信息表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单信息表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单信息管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单录入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQ</t>
-  </si>
-  <si>
-    <t>打印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>复杂</t>
-  </si>
-  <si>
-    <t>查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>生成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -433,51 +385,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>统计信息管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存信息表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>油船信息录入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>海运提单审核</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EIF</t>
-  </si>
-  <si>
-    <t>货权转让审核</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>货权转让管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>货权转让管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>货权转让信息表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>货权转让生成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构信息表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>用户添加</t>
@@ -548,10 +456,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>曲库管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>曲库信息表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -573,6 +477,182 @@
   </si>
   <si>
     <t>信息修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲添加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲音量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲试听</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子频道添加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子频道删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲排序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌单导出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲试听</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲下载</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业信息表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业添加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>频道删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划制定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>频道查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>频道添加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级树形结构</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户新增</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户插播管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插播信息表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插播查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插播计划制定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插播音乐删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插播计划删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插播计划暂停</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插播录音上传</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>频道查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放统计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>悦耳后台管理系统（客户端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放器管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发截止时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息展示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息设置</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1315,7 +1395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1391,6 +1471,39 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1413,27 +1526,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8270,10 +8362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R66"/>
+  <dimension ref="B1:S88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="57" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="57" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -8283,385 +8375,402 @@
     <col min="4" max="4" width="7.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10" style="3" customWidth="1"/>
-    <col min="9" max="10" width="7.375" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="6.75" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6.375" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="5.25" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="18" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="7" max="8" width="10" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10" style="3" customWidth="1"/>
+    <col min="10" max="11" width="7.375" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="6.75" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.375" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.25" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="19" width="9" style="2" hidden="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:19">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="H1" s="3"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:19">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="2:18" ht="13.5">
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="2:19" ht="13.5">
+      <c r="B3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="42"/>
     </row>
-    <row r="4" spans="2:18" ht="14.25">
-      <c r="B4" s="32" t="s">
+    <row r="4" spans="2:19" ht="14.25">
+      <c r="B4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="M4" s="40" t="s">
+      <c r="L4" s="46"/>
+      <c r="N4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
     </row>
-    <row r="5" spans="2:18" ht="13.5">
-      <c r="B5" s="36" t="s">
+    <row r="5" spans="2:19" ht="13.5">
+      <c r="B5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="4" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="N5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="35"/>
+      <c r="P5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="35"/>
+      <c r="R5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="S5" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="14.25">
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="2:19" ht="14.25">
+      <c r="B6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="20" t="s">
+      <c r="H6" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="27">
+      <c r="N6" s="31">
         <v>1</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27" t="s">
+      <c r="O6" s="31"/>
+      <c r="P6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="5">
+      <c r="Q6" s="31"/>
+      <c r="R6" s="5">
         <v>0</v>
       </c>
-      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="2:18" ht="13.5">
-      <c r="B7" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="27" t="s">
+    <row r="7" spans="2:19" ht="13.5">
+      <c r="B7" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="26" t="s">
+      <c r="H7" s="29"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="8">
-        <f t="shared" ref="K7:K65" si="0">IF(AND(J7="EI",I7="简单"),3,IF(AND(J7="EI",I7="普通"),4,IF(AND(J7="EI",I7="复杂"),6,IF(AND(J7="EO",I7="简单"),4,IF(AND(J7="EO",I7="普通"),5,IF(AND(J7="EO",I7="复杂"),7,IF(AND(J7="EQ",I7="简单"),3,IF(AND(J7="EQ",I7="普通"),4,IF(AND(J7="EQ",I7="复杂"),6,IF(AND(J7="ILF",I7="简单"),7,IF(AND(J7="ILF",I7="普通"),10,IF(AND(J7="ILF",I7="复杂"),15,IF(AND(J7="EIF",I7="简单"),5,IF(AND(J7="EIF",I7="普通"),7,IF(AND(J7="EIF",I7="复杂"),10,0)))))))))))))))</f>
+      <c r="L7" s="8">
+        <f t="shared" ref="L7:L87" si="0">IF(AND(K7="EI",J7="简单"),3,IF(AND(K7="EI",J7="普通"),4,IF(AND(K7="EI",J7="复杂"),6,IF(AND(K7="EO",J7="简单"),4,IF(AND(K7="EO",J7="普通"),5,IF(AND(K7="EO",J7="复杂"),7,IF(AND(K7="EQ",J7="简单"),3,IF(AND(K7="EQ",J7="普通"),4,IF(AND(K7="EQ",J7="复杂"),6,IF(AND(K7="ILF",J7="简单"),7,IF(AND(K7="ILF",J7="普通"),10,IF(AND(K7="ILF",J7="复杂"),15,IF(AND(K7="EIF",J7="简单"),5,IF(AND(K7="EIF",J7="普通"),7,IF(AND(K7="EIF",J7="复杂"),10,0)))))))))))))))</f>
         <v>7</v>
       </c>
-      <c r="M7" s="27">
+      <c r="N7" s="31">
         <v>2</v>
       </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="31"/>
+      <c r="P7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="5">
+      <c r="Q7" s="31"/>
+      <c r="R7" s="5">
         <v>0</v>
       </c>
-      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="2:18" ht="13.5">
+    <row r="8" spans="2:19" ht="13.5">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
       <c r="G8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="8">
+      <c r="L8" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M8" s="27">
+      <c r="N8" s="31">
         <v>3</v>
       </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27" t="s">
+      <c r="O8" s="31"/>
+      <c r="P8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="5">
+      <c r="Q8" s="31"/>
+      <c r="R8" s="5">
         <v>3</v>
       </c>
-      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="2:18" ht="13.5">
+    <row r="9" spans="2:19" ht="13.5">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
       <c r="G9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="8">
+      <c r="L9" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M9" s="27">
+      <c r="N9" s="31">
         <v>4</v>
       </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="31"/>
+      <c r="P9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="5">
+      <c r="Q9" s="31"/>
+      <c r="R9" s="5">
         <v>2</v>
       </c>
-      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="2:18" ht="13.5">
+    <row r="10" spans="2:19" ht="13.5">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
       <c r="G10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="8">
+      <c r="L10" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M10" s="27">
+      <c r="N10" s="31">
         <v>5</v>
       </c>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27" t="s">
+      <c r="O10" s="31"/>
+      <c r="P10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="5">
+      <c r="Q10" s="31"/>
+      <c r="R10" s="5">
         <v>3</v>
       </c>
-      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
     </row>
-    <row r="11" spans="2:18" ht="13.5">
+    <row r="11" spans="2:19" ht="13.5">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
       <c r="G11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="8">
+      <c r="L11" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M11" s="27">
+      <c r="N11" s="31">
         <v>6</v>
       </c>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27" t="s">
+      <c r="O11" s="31"/>
+      <c r="P11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="5">
+      <c r="Q11" s="31"/>
+      <c r="R11" s="5">
         <v>3</v>
       </c>
-      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="2:18" ht="13.5">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+    <row r="12" spans="2:19" ht="13.5">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="8">
+      <c r="L12" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M12" s="27">
+      <c r="N12" s="31">
         <v>7</v>
       </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27" t="s">
+      <c r="O12" s="31"/>
+      <c r="P12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="5">
+      <c r="Q12" s="31"/>
+      <c r="R12" s="5">
         <v>5</v>
       </c>
-      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="2:18" ht="13.5">
+    <row r="13" spans="2:19" ht="13.5">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="8">
+      <c r="L13" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M13" s="27">
+      <c r="N13" s="31">
         <v>8</v>
       </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27" t="s">
+      <c r="O13" s="31"/>
+      <c r="P13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="5">
+      <c r="Q13" s="31"/>
+      <c r="R13" s="5">
         <v>0</v>
       </c>
-      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="2:18" ht="13.5">
+    <row r="14" spans="2:19" ht="13.5">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9"/>
@@ -8670,31 +8779,32 @@
       <c r="G14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="26" t="s">
+      <c r="H14" s="29"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="8">
+      <c r="L14" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M14" s="27">
+      <c r="N14" s="31">
         <v>9</v>
       </c>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27" t="s">
+      <c r="O14" s="31"/>
+      <c r="P14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="5">
+      <c r="Q14" s="31"/>
+      <c r="R14" s="5">
         <v>4</v>
       </c>
-      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
     </row>
-    <row r="15" spans="2:18" ht="13.5">
+    <row r="15" spans="2:19" ht="13.5">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9"/>
@@ -8703,31 +8813,32 @@
       <c r="G15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="26" t="s">
+      <c r="H15" s="29"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="8">
+      <c r="L15" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M15" s="27">
+      <c r="N15" s="31">
         <v>10</v>
       </c>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27" t="s">
+      <c r="O15" s="31"/>
+      <c r="P15" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="5">
+      <c r="Q15" s="31"/>
+      <c r="R15" s="5">
         <v>1</v>
       </c>
-      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="2:18" ht="13.5">
+    <row r="16" spans="2:19" ht="13.5">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9"/>
@@ -8736,33 +8847,34 @@
       <c r="G16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="26" t="s">
+      <c r="H16" s="29"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="8">
+      <c r="L16" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M16" s="27">
+      <c r="N16" s="31">
         <v>11</v>
       </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27" t="s">
+      <c r="O16" s="31"/>
+      <c r="P16" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="5">
+      <c r="Q16" s="31"/>
+      <c r="R16" s="5">
         <v>2</v>
       </c>
-      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="2:18" ht="13.5">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+    <row r="17" spans="2:19" ht="13.5">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
       <c r="F17" s="9" t="s">
@@ -8771,31 +8883,32 @@
       <c r="G17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="26" t="s">
+      <c r="H17" s="29"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K17" s="8">
+      <c r="L17" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M17" s="27">
+      <c r="N17" s="31">
         <v>12</v>
       </c>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27" t="s">
+      <c r="O17" s="31"/>
+      <c r="P17" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="5">
+      <c r="Q17" s="31"/>
+      <c r="R17" s="5">
         <v>5</v>
       </c>
-      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="2:18" ht="13.5">
+    <row r="18" spans="2:19" ht="13.5">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9"/>
@@ -8804,31 +8917,32 @@
       <c r="G18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="26" t="s">
+      <c r="H18" s="29"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="8">
+      <c r="L18" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M18" s="27">
+      <c r="N18" s="31">
         <v>13</v>
       </c>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27" t="s">
+      <c r="O18" s="31"/>
+      <c r="P18" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="5">
+      <c r="Q18" s="31"/>
+      <c r="R18" s="5">
         <v>3</v>
       </c>
-      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
     </row>
-    <row r="19" spans="2:18" ht="13.5">
+    <row r="19" spans="2:19" ht="13.5">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9"/>
@@ -8837,31 +8951,32 @@
       <c r="G19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="26" t="s">
+      <c r="H19" s="29"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="8">
+      <c r="L19" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M19" s="27">
+      <c r="N19" s="31">
         <v>14</v>
       </c>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27" t="s">
+      <c r="O19" s="31"/>
+      <c r="P19" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="5">
+      <c r="Q19" s="31"/>
+      <c r="R19" s="5">
         <v>4</v>
       </c>
-      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
     </row>
-    <row r="20" spans="2:18" ht="13.5">
+    <row r="20" spans="2:19" ht="13.5">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9"/>
@@ -8870,30 +8985,31 @@
       <c r="G20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="26" t="s">
+      <c r="H20" s="29"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="8">
+      <c r="L20" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M20" s="37" t="s">
+      <c r="N20" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="5">
-        <f>SUM(Q6:Q19)</f>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="5">
+        <f>SUM(R6:R19)</f>
         <v>35</v>
       </c>
-      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
     </row>
-    <row r="21" spans="2:18" ht="13.5">
+    <row r="21" spans="2:19" ht="13.5">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9"/>
@@ -8902,90 +9018,93 @@
       <c r="G21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="26" t="s">
+      <c r="H21" s="29"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K21" s="8">
+      <c r="L21" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M21" s="17" t="s">
+      <c r="N21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17" t="s">
+      <c r="O21" s="17"/>
+      <c r="P21" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
     </row>
-    <row r="22" spans="2:18" ht="13.5">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+    <row r="22" spans="2:19" ht="13.5">
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
       <c r="F22" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="26" t="s">
+      <c r="H22" s="29"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K22" s="8">
+      <c r="L22" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M22" s="17"/>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
     </row>
-    <row r="23" spans="2:18" ht="13.5">
+    <row r="23" spans="2:19" ht="13.5">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9"/>
       <c r="E23" s="10"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K23" s="8">
+      <c r="L23" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M23" s="42" t="s">
+      <c r="N23" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42">
-        <f>ROUND(D66*(0.65+0.01*Q20),0)</f>
-        <v>315</v>
-      </c>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="17"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35">
+        <f>ROUND(D88*(0.65+0.01*R20),0)</f>
+        <v>351</v>
+      </c>
+      <c r="Q23" s="35"/>
       <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
     </row>
-    <row r="24" spans="2:18" ht="13.5">
+    <row r="24" spans="2:19" ht="13.5">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9"/>
@@ -8994,976 +9113,1344 @@
         <v>51</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="8">
+      <c r="L24" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="13.5">
+    <row r="25" spans="2:19" ht="13.5">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K25" s="8">
+      <c r="L25" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="13.5">
+    <row r="26" spans="2:19" ht="13.5">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K26" s="8">
+      <c r="L26" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="13.5">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+    <row r="27" spans="2:19" ht="13.5">
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="8">
+      <c r="L27" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="13.5">
+    <row r="28" spans="2:19" ht="13.5">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="D28" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="18">
+        <v>12.13</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K28" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
+      <c r="L28" s="8">
+        <f t="shared" ref="L28:L40" si="1">IF(AND(K28="EI",J28="简单"),3,IF(AND(K28="EI",J28="普通"),4,IF(AND(K28="EI",J28="复杂"),6,IF(AND(K28="EO",J28="简单"),4,IF(AND(K28="EO",J28="普通"),5,IF(AND(K28="EO",J28="复杂"),7,IF(AND(K28="EQ",J28="简单"),3,IF(AND(K28="EQ",J28="普通"),4,IF(AND(K28="EQ",J28="复杂"),6,IF(AND(K28="ILF",J28="简单"),7,IF(AND(K28="ILF",J28="普通"),10,IF(AND(K28="ILF",J28="复杂"),15,IF(AND(K28="EIF",J28="简单"),5,IF(AND(K28="EIF",J28="普通"),7,IF(AND(K28="EIF",J28="复杂"),10,0)))))))))))))))</f>
+        <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="13.5">
+    <row r="29" spans="2:19" ht="13.5">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="29"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K29" s="8">
-        <f t="shared" ref="K29:K30" si="1">IF(AND(J29="EI",I29="简单"),3,IF(AND(J29="EI",I29="普通"),4,IF(AND(J29="EI",I29="复杂"),6,IF(AND(J29="EO",I29="简单"),4,IF(AND(J29="EO",I29="普通"),5,IF(AND(J29="EO",I29="复杂"),7,IF(AND(J29="EQ",I29="简单"),3,IF(AND(J29="EQ",I29="普通"),4,IF(AND(J29="EQ",I29="复杂"),6,IF(AND(J29="ILF",I29="简单"),7,IF(AND(J29="ILF",I29="普通"),10,IF(AND(J29="ILF",I29="复杂"),15,IF(AND(J29="EIF",I29="简单"),5,IF(AND(J29="EIF",I29="普通"),7,IF(AND(J29="EIF",I29="复杂"),10,0)))))))))))))))</f>
-        <v>3</v>
+      <c r="L29" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="13.5">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" s="7" t="s">
+    <row r="30" spans="2:19" ht="13.5">
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I30" s="27"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="2:19" ht="13.5">
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="27"/>
+      <c r="J31" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="8">
+      <c r="L31" s="8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="13.5">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K31" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" ht="13.5">
+    <row r="32" spans="2:19" ht="13.5">
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" s="27"/>
+      <c r="J32" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="13.5">
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="27"/>
+      <c r="J33" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="K32" s="8">
-        <f t="shared" ref="K32:K51" si="2">IF(AND(J32="EI",I32="简单"),3,IF(AND(J32="EI",I32="普通"),4,IF(AND(J32="EI",I32="复杂"),6,IF(AND(J32="EO",I32="简单"),4,IF(AND(J32="EO",I32="普通"),5,IF(AND(J32="EO",I32="复杂"),7,IF(AND(J32="EQ",I32="简单"),3,IF(AND(J32="EQ",I32="普通"),4,IF(AND(J32="EQ",I32="复杂"),6,IF(AND(J32="ILF",I32="简单"),7,IF(AND(J32="ILF",I32="普通"),10,IF(AND(J32="ILF",I32="复杂"),15,IF(AND(J32="EIF",I32="简单"),5,IF(AND(J32="EIF",I32="普通"),7,IF(AND(J32="EIF",I32="复杂"),10,0)))))))))))))))</f>
-        <v>4</v>
+      <c r="L33" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="13.5">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K33" s="8">
-        <f t="shared" ref="K33:K37" si="3">IF(AND(J33="EI",I33="简单"),3,IF(AND(J33="EI",I33="普通"),4,IF(AND(J33="EI",I33="复杂"),6,IF(AND(J33="EO",I33="简单"),4,IF(AND(J33="EO",I33="普通"),5,IF(AND(J33="EO",I33="复杂"),7,IF(AND(J33="EQ",I33="简单"),3,IF(AND(J33="EQ",I33="普通"),4,IF(AND(J33="EQ",I33="复杂"),6,IF(AND(J33="ILF",I33="简单"),7,IF(AND(J33="ILF",I33="普通"),10,IF(AND(J33="ILF",I33="复杂"),15,IF(AND(J33="EIF",I33="简单"),5,IF(AND(J33="EIF",I33="普通"),7,IF(AND(J33="EIF",I33="复杂"),10,0)))))))))))))))</f>
+    <row r="34" spans="2:12" ht="13.5">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I34" s="27"/>
+      <c r="J34" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L34" s="8">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="13.5">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="H34" s="18"/>
-      <c r="I34" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" s="8">
-        <f t="shared" si="3"/>
-        <v>4</v>
+    <row r="35" spans="2:12" ht="13.5">
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" s="27"/>
+      <c r="J35" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L35" s="8">
+        <f t="shared" ref="L35" si="2">IF(AND(K35="EI",J35="简单"),3,IF(AND(K35="EI",J35="普通"),4,IF(AND(K35="EI",J35="复杂"),6,IF(AND(K35="EO",J35="简单"),4,IF(AND(K35="EO",J35="普通"),5,IF(AND(K35="EO",J35="复杂"),7,IF(AND(K35="EQ",J35="简单"),3,IF(AND(K35="EQ",J35="普通"),4,IF(AND(K35="EQ",J35="复杂"),6,IF(AND(K35="ILF",J35="简单"),7,IF(AND(K35="ILF",J35="普通"),10,IF(AND(K35="ILF",J35="复杂"),15,IF(AND(K35="EIF",J35="简单"),5,IF(AND(K35="EIF",J35="普通"),7,IF(AND(K35="EIF",J35="复杂"),10,0)))))))))))))))</f>
+        <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="13.5">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35" s="8">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="13.5">
+    <row r="36" spans="2:12" ht="13.5">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="12"/>
       <c r="E36" s="13"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J36" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36" s="8">
-        <f t="shared" si="3"/>
-        <v>5</v>
+      <c r="K36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L36" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="13.5">
+    <row r="37" spans="2:12" ht="13.5">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="12"/>
       <c r="E37" s="13"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="H37" s="18"/>
-      <c r="I37" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K37" s="8">
-        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="H37" s="29"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="13.5">
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" s="27"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="2:12" ht="13.5">
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I39" s="27"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="2:12" ht="13.5">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" s="29"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L40" s="8">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="13.5">
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="J38" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K38" s="8">
-        <f t="shared" ref="K38:K42" si="4">IF(AND(J38="EI",I38="简单"),3,IF(AND(J38="EI",I38="普通"),4,IF(AND(J38="EI",I38="复杂"),6,IF(AND(J38="EO",I38="简单"),4,IF(AND(J38="EO",I38="普通"),5,IF(AND(J38="EO",I38="复杂"),7,IF(AND(J38="EQ",I38="简单"),3,IF(AND(J38="EQ",I38="普通"),4,IF(AND(J38="EQ",I38="复杂"),6,IF(AND(J38="ILF",I38="简单"),7,IF(AND(J38="ILF",I38="普通"),10,IF(AND(J38="ILF",I38="复杂"),15,IF(AND(J38="EIF",I38="简单"),5,IF(AND(J38="EIF",I38="普通"),7,IF(AND(J38="EIF",I38="复杂"),10,0)))))))))))))))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="13.5">
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="J39" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K39" s="8">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="13.5">
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H40" s="18"/>
-      <c r="I40" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="J40" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K40" s="8">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="13.5">
+    <row r="41" spans="2:12" ht="13.5">
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="19"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="19"/>
+      <c r="F41" s="19" t="s">
+        <v>73</v>
+      </c>
       <c r="G41" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="29"/>
+      <c r="I41" s="18">
+        <v>12.2</v>
+      </c>
+      <c r="J41" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J41" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K41" s="8">
-        <f t="shared" si="4"/>
-        <v>5</v>
+      <c r="K41" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="L41" s="8">
+        <f t="shared" ref="L41:L49" si="3">IF(AND(K41="EI",J41="简单"),3,IF(AND(K41="EI",J41="普通"),4,IF(AND(K41="EI",J41="复杂"),6,IF(AND(K41="EO",J41="简单"),4,IF(AND(K41="EO",J41="普通"),5,IF(AND(K41="EO",J41="复杂"),7,IF(AND(K41="EQ",J41="简单"),3,IF(AND(K41="EQ",J41="普通"),4,IF(AND(K41="EQ",J41="复杂"),6,IF(AND(K41="ILF",J41="简单"),7,IF(AND(K41="ILF",J41="普通"),10,IF(AND(K41="ILF",J41="复杂"),15,IF(AND(K41="EIF",J41="简单"),5,IF(AND(K41="EIF",J41="普通"),7,IF(AND(K41="EIF",J41="复杂"),10,0)))))))))))))))</f>
+        <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="13.5">
+    <row r="42" spans="2:12" ht="13.5">
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
       <c r="D42" s="19"/>
       <c r="E42" s="20"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="J42" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="K42" s="8">
+        <v>79</v>
+      </c>
+      <c r="H42" s="29"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L42" s="8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="13.5">
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I43" s="27"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="2:12" ht="13.5">
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I44" s="27"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="2:12" ht="13.5">
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="I45" s="27"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="2:12" ht="13.5">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" s="29"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K46" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L46" s="8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="13.5">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" s="29"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47" s="8">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="13.5">
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I48" s="27"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="2:12" ht="13.5">
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" s="29"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="L49" s="8">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="13.5">
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" s="29"/>
+      <c r="I50" s="27">
+        <v>12.6</v>
+      </c>
+      <c r="J50" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K50" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L50" s="8">
+        <f t="shared" ref="L50:L56" si="4">IF(AND(K50="EI",J50="简单"),3,IF(AND(K50="EI",J50="普通"),4,IF(AND(K50="EI",J50="复杂"),6,IF(AND(K50="EO",J50="简单"),4,IF(AND(K50="EO",J50="普通"),5,IF(AND(K50="EO",J50="复杂"),7,IF(AND(K50="EQ",J50="简单"),3,IF(AND(K50="EQ",J50="普通"),4,IF(AND(K50="EQ",J50="复杂"),6,IF(AND(K50="ILF",J50="简单"),7,IF(AND(K50="ILF",J50="普通"),10,IF(AND(K50="ILF",J50="复杂"),15,IF(AND(K50="EIF",J50="简单"),5,IF(AND(K50="EIF",J50="普通"),7,IF(AND(K50="EIF",J50="复杂"),10,0)))))))))))))))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="13.5">
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51" s="29"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K51" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L51" s="8">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="13.5">
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" s="29"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K52" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L52" s="8">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="13.5">
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H53" s="29"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K53" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L53" s="8">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="13.5">
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I54" s="27"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="8"/>
+    </row>
+    <row r="55" spans="2:12" ht="13.5">
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I55" s="27"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="8"/>
+    </row>
+    <row r="56" spans="2:12" ht="13.5">
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H56" s="29"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K56" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="L56" s="8">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="13.5">
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="H43" s="22"/>
-      <c r="I43" s="26" t="s">
+    <row r="57" spans="2:12" ht="13.5">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H57" s="29"/>
+      <c r="I57" s="18">
+        <v>12.6</v>
+      </c>
+      <c r="J57" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J43" s="23" t="s">
+      <c r="K57" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K43" s="8">
-        <f t="shared" ref="K43:K47" si="5">IF(AND(J43="EI",I43="简单"),3,IF(AND(J43="EI",I43="普通"),4,IF(AND(J43="EI",I43="复杂"),6,IF(AND(J43="EO",I43="简单"),4,IF(AND(J43="EO",I43="普通"),5,IF(AND(J43="EO",I43="复杂"),7,IF(AND(J43="EQ",I43="简单"),3,IF(AND(J43="EQ",I43="普通"),4,IF(AND(J43="EQ",I43="复杂"),6,IF(AND(J43="ILF",I43="简单"),7,IF(AND(J43="ILF",I43="普通"),10,IF(AND(J43="ILF",I43="复杂"),15,IF(AND(J43="EIF",I43="简单"),5,IF(AND(J43="EIF",I43="普通"),7,IF(AND(J43="EIF",I43="复杂"),10,0)))))))))))))))</f>
+      <c r="L57" s="8">
+        <f t="shared" ref="L57:L63" si="5">IF(AND(K57="EI",J57="简单"),3,IF(AND(K57="EI",J57="普通"),4,IF(AND(K57="EI",J57="复杂"),6,IF(AND(K57="EO",J57="简单"),4,IF(AND(K57="EO",J57="普通"),5,IF(AND(K57="EO",J57="复杂"),7,IF(AND(K57="EQ",J57="简单"),3,IF(AND(K57="EQ",J57="普通"),4,IF(AND(K57="EQ",J57="复杂"),6,IF(AND(K57="ILF",J57="简单"),7,IF(AND(K57="ILF",J57="普通"),10,IF(AND(K57="ILF",J57="复杂"),15,IF(AND(K57="EIF",J57="简单"),5,IF(AND(K57="EIF",J57="普通"),7,IF(AND(K57="EIF",J57="复杂"),10,0)))))))))))))))</f>
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="13.5">
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="H44" s="22"/>
-      <c r="I44" s="26" t="s">
+    <row r="58" spans="2:12" ht="13.5">
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="I58" s="18"/>
+      <c r="J58" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J44" s="23" t="s">
+      <c r="K58" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K44" s="8">
+      <c r="L58" s="8">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="13.5">
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H45" s="22"/>
-      <c r="I45" s="26" t="s">
+    <row r="59" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="I59" s="27"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="8"/>
+    </row>
+    <row r="60" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I60" s="27"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="8"/>
+    </row>
+    <row r="61" spans="2:12" ht="14.25" customHeight="1">
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="I61" s="27"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="8"/>
+    </row>
+    <row r="62" spans="2:12" ht="13.5">
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J45" s="23" t="s">
+      <c r="K62" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K45" s="8">
+      <c r="L62" s="8">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="13.5">
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H46" s="22"/>
-      <c r="I46" s="26" t="s">
+    <row r="63" spans="2:12" ht="13.5">
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H63" s="11"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J46" s="23" t="s">
+      <c r="K63" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K46" s="8">
+      <c r="L63" s="8">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="13.5">
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24" t="s">
+    <row r="64" spans="2:12" ht="13.5">
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H64" s="11"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L64" s="8">
+        <f t="shared" ref="L64" si="6">IF(AND(K64="EI",J64="简单"),3,IF(AND(K64="EI",J64="普通"),4,IF(AND(K64="EI",J64="复杂"),6,IF(AND(K64="EO",J64="简单"),4,IF(AND(K64="EO",J64="普通"),5,IF(AND(K64="EO",J64="复杂"),7,IF(AND(K64="EQ",J64="简单"),3,IF(AND(K64="EQ",J64="普通"),4,IF(AND(K64="EQ",J64="复杂"),6,IF(AND(K64="ILF",J64="简单"),7,IF(AND(K64="ILF",J64="普通"),10,IF(AND(K64="ILF",J64="复杂"),15,IF(AND(K64="EIF",J64="简单"),5,IF(AND(K64="EIF",J64="普通"),7,IF(AND(K64="EIF",J64="复杂"),10,0)))))))))))))))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" ht="13.5">
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H47" s="22"/>
-      <c r="I47" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="J47" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="K47" s="8">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="13.5">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H48" s="18"/>
-      <c r="I48" s="26" t="s">
+      <c r="G65" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H65" s="29"/>
+      <c r="I65" s="18">
+        <v>12.13</v>
+      </c>
+      <c r="J65" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="K65" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K48" s="8">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="13.5">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H49" s="18"/>
-      <c r="I49" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K49" s="8">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" ht="13.5">
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H50" s="18"/>
-      <c r="I50" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K50" s="8">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" ht="13.5">
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H51" s="18"/>
-      <c r="I51" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K51" s="8">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" ht="13.5">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H52" s="18"/>
-      <c r="I52" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K52" s="8">
-        <f t="shared" ref="K52" si="6">IF(AND(J52="EI",I52="简单"),3,IF(AND(J52="EI",I52="普通"),4,IF(AND(J52="EI",I52="复杂"),6,IF(AND(J52="EO",I52="简单"),4,IF(AND(J52="EO",I52="普通"),5,IF(AND(J52="EO",I52="复杂"),7,IF(AND(J52="EQ",I52="简单"),3,IF(AND(J52="EQ",I52="普通"),4,IF(AND(J52="EQ",I52="复杂"),6,IF(AND(J52="ILF",I52="简单"),7,IF(AND(J52="ILF",I52="普通"),10,IF(AND(J52="ILF",I52="复杂"),15,IF(AND(J52="EIF",I52="简单"),5,IF(AND(J52="EIF",I52="普通"),7,IF(AND(J52="EIF",I52="复杂"),10,0)))))))))))))))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="13.5">
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H53" s="18"/>
-      <c r="I53" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K53" s="8">
+      <c r="L65" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="13.5">
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H54" s="18"/>
-      <c r="I54" s="26" t="s">
+    <row r="66" spans="2:12" ht="13.5">
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H66" s="29"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="K66" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K54" s="8">
+      <c r="L66" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="13.5">
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H55" s="18"/>
-      <c r="I55" s="26" t="s">
+    <row r="67" spans="2:12" ht="13.5">
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I67" s="27"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="8"/>
+    </row>
+    <row r="68" spans="2:12" ht="13.5">
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I68" s="27"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="8"/>
+    </row>
+    <row r="69" spans="2:12" ht="13.5">
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="I69" s="27"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="8"/>
+    </row>
+    <row r="70" spans="2:12" ht="13.5">
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H70" s="29"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="K70" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K55" s="8">
+      <c r="L70" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="13.5">
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H56" s="18"/>
-      <c r="I56" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="J56" s="7" t="s">
+    <row r="71" spans="2:12" ht="13.5">
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H71" s="29"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K71" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K56" s="8">
+      <c r="L71" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="2:11" ht="13.5">
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H57" s="18"/>
-      <c r="I57" s="26" t="s">
+    <row r="72" spans="2:12" ht="13.5">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H72" s="29"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J57" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K57" s="8">
-        <f>IF(AND(J57="EI",I57="简单"),3,IF(AND(J57="EI",I57="普通"),4,IF(AND(J57="EI",I57="复杂"),6,IF(AND(J57="EO",I57="简单"),4,IF(AND(J57="EO",I57="普通"),5,IF(AND(J57="EO",I57="复杂"),7,IF(AND(J57="EQ",I57="简单"),3,IF(AND(J57="EQ",I57="普通"),4,IF(AND(J57="EQ",I57="复杂"),6,IF(AND(J57="ILF",I57="简单"),7,IF(AND(J57="ILF",I57="普通"),10,IF(AND(J57="ILF",I57="复杂"),15,IF(AND(J57="EIF",I57="简单"),5,IF(AND(J57="EIF",I57="普通"),7,IF(AND(J57="EIF",I57="复杂"),10,0)))))))))))))))</f>
+      <c r="K72" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L72" s="8">
+        <f>IF(AND(K72="EI",J72="简单"),3,IF(AND(K72="EI",J72="普通"),4,IF(AND(K72="EI",J72="复杂"),6,IF(AND(K72="EO",J72="简单"),4,IF(AND(K72="EO",J72="普通"),5,IF(AND(K72="EO",J72="复杂"),7,IF(AND(K72="EQ",J72="简单"),3,IF(AND(K72="EQ",J72="普通"),4,IF(AND(K72="EQ",J72="复杂"),6,IF(AND(K72="ILF",J72="简单"),7,IF(AND(K72="ILF",J72="普通"),10,IF(AND(K72="ILF",J72="复杂"),15,IF(AND(K72="EIF",J72="简单"),5,IF(AND(K72="EIF",J72="普通"),7,IF(AND(K72="EIF",J72="复杂"),10,0)))))))))))))))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="13.5">
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="38"/>
-      <c r="F58" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H58" s="18"/>
-      <c r="I58" s="26" t="s">
+    <row r="73" spans="2:12" ht="13.5">
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G73" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="H73" s="29"/>
+      <c r="I73" s="27">
+        <v>12.2</v>
+      </c>
+      <c r="J73" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J58" s="7" t="s">
+      <c r="K73" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="K58" s="8">
+      <c r="L73" s="8">
+        <f t="shared" ref="L73:L79" si="7">IF(AND(K73="EI",J73="简单"),3,IF(AND(K73="EI",J73="普通"),4,IF(AND(K73="EI",J73="复杂"),6,IF(AND(K73="EO",J73="简单"),4,IF(AND(K73="EO",J73="普通"),5,IF(AND(K73="EO",J73="复杂"),7,IF(AND(K73="EQ",J73="简单"),3,IF(AND(K73="EQ",J73="普通"),4,IF(AND(K73="EQ",J73="复杂"),6,IF(AND(K73="ILF",J73="简单"),7,IF(AND(K73="ILF",J73="普通"),10,IF(AND(K73="ILF",J73="复杂"),15,IF(AND(K73="EIF",J73="简单"),5,IF(AND(K73="EIF",J73="普通"),7,IF(AND(K73="EIF",J73="复杂"),10,0)))))))))))))))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" ht="13.5">
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H74" s="29"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K74" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="L74" s="8">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" ht="13.5">
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H75" s="29"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="8"/>
+    </row>
+    <row r="76" spans="2:12" ht="13.5">
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H76" s="29"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="8"/>
+    </row>
+    <row r="77" spans="2:12" ht="13.5">
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="H77" s="29"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="8"/>
+    </row>
+    <row r="78" spans="2:12" ht="13.5">
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H78" s="29"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K78" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="L78" s="8">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" ht="13.5">
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="H79" s="29"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K79" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="L79" s="8">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" ht="13.5">
+      <c r="B80" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="38"/>
+      <c r="D80" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E80" s="31"/>
+      <c r="F80" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G80" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="H80" s="29"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L80" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="13.5">
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H59" s="18"/>
-      <c r="I59" s="26" t="s">
+    <row r="81" spans="2:12" ht="13.5">
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G81" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H81" s="29"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="K81" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K59" s="8">
+      <c r="L81" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="13.5">
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H60" s="18"/>
-      <c r="I60" s="26" t="s">
+    <row r="82" spans="2:12" ht="13.5">
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H82" s="29"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="K82" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K60" s="8">
+      <c r="L82" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="13.5">
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H61" s="18"/>
-      <c r="I61" s="26" t="s">
+    <row r="83" spans="2:12" ht="13.5">
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="K83" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K61" s="8">
+      <c r="L83" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="13.5">
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H62" s="18"/>
-      <c r="I62" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K62" s="8">
+    <row r="84" spans="2:12" ht="13.5">
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L84" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="13.5">
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H63" s="18"/>
-      <c r="I63" s="26" t="s">
+    <row r="85" spans="2:12" ht="13.5">
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G85" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H85" s="29"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="K85" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K63" s="8">
+      <c r="L85" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="13.5">
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H64" s="18"/>
-      <c r="I64" s="26" t="s">
+    <row r="86" spans="2:12" ht="13.5">
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H86" s="29"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J64" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K64" s="8">
+      <c r="K86" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L86" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="13.5">
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H65" s="18"/>
-      <c r="I65" s="26" t="s">
+    <row r="87" spans="2:12" ht="13.5">
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" s="29"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J65" s="7" t="s">
+      <c r="K87" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K65" s="8">
+      <c r="L87" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="13.5" hidden="1">
-      <c r="B66" s="39" t="s">
+    <row r="88" spans="2:12" ht="13.5" hidden="1">
+      <c r="B88" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C66" s="39"/>
-      <c r="D66" s="14">
-        <f>SUM(K7:K66)</f>
-        <v>315</v>
-      </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="15"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="14">
+        <f>SUM(L7:L88)</f>
+        <v>351</v>
+      </c>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="B6:K66">
+  <autoFilter ref="B6:L88">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
-  <mergeCells count="54">
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="M4:R4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
+  <mergeCells count="52">
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B12:C12"/>
@@ -9971,16 +10458,61 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q6:Q19">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R6:R19">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K87">
       <formula1>"EI,EO,EQ,ILF,EIF"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J87">
       <formula1>"复杂,普通,简单"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/2、计划/功能点估算简表V1.0.xlsx
+++ b/doc/2、计划/功能点估算简表V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="3525"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8508" windowHeight="3528"/>
   </bookViews>
   <sheets>
     <sheet name="第3章 范围分解与功能点估计" sheetId="32" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="\a">#REF!</definedName>
     <definedName name="\i">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'第3章 范围分解与功能点估计'!$B$6:$L$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'第3章 范围分解与功能点估计'!$B$6:$L$99</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
     <definedName name="A">#REF!</definedName>
     <definedName name="CellSum当初MSK">[1]ＡＰ用山積表!$H$17</definedName>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="154">
   <si>
     <t>计算未调整的功能点（UFP)</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -359,17 +359,9 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>统计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EQ</t>
   </si>
   <si>
-    <t>打印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>复杂</t>
   </si>
   <si>
@@ -653,6 +645,104 @@
   </si>
   <si>
     <t>用户信息设置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的店铺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间信息显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放计划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插播计划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景业态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示业态频道</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三种频道切换</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种业态选择</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入频道显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>频道播放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放控制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一首下一首</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放/暂停</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放进度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>音量调节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌声切换</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发截止时间12月22日，12月22日~12月24日 进行第一轮测试。从12月26日~12月31日进行第二轮测试，在1月份第一个工作日进行上线。</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +753,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_-&quot;NT$&quot;* #,##0_-;\-&quot;NT$&quot;* #,##0_-;_-&quot;NT$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -896,6 +986,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="29">
     <fill>
@@ -1067,7 +1164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1254,6 +1351,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1395,7 +1572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1483,25 +1660,19 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1527,6 +1698,54 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -8362,26 +8581,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S88"/>
+  <dimension ref="B1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="57" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="57" workbookViewId="0">
+      <selection activeCell="V104" sqref="V104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="11.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="2" customWidth="1"/>
     <col min="7" max="8" width="10" style="2" customWidth="1"/>
     <col min="9" max="9" width="10" style="3" customWidth="1"/>
-    <col min="10" max="11" width="7.375" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="6.75" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="7.3984375" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="6.69921875" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="5.25" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3984375" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.19921875" style="2" hidden="1" customWidth="1"/>
     <col min="16" max="19" width="9" style="2" hidden="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="2"/>
   </cols>
@@ -8410,70 +8629,70 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="2:19" ht="13.5">
-      <c r="B3" s="40" t="s">
+    <row r="3" spans="2:19" ht="13.2">
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="42"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="40"/>
     </row>
-    <row r="4" spans="2:19" ht="14.25">
-      <c r="B4" s="43" t="s">
+    <row r="4" spans="2:19" ht="14.4">
+      <c r="B4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="46"/>
-      <c r="N4" s="36" t="s">
+      <c r="L4" s="44"/>
+      <c r="N4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
     </row>
-    <row r="5" spans="2:19" ht="13.5">
-      <c r="B5" s="47" t="s">
+    <row r="5" spans="2:19" ht="13.2">
+      <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35" t="s">
+      <c r="O5" s="49"/>
+      <c r="P5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="35"/>
+      <c r="Q5" s="49"/>
       <c r="R5" s="16" t="s">
         <v>14</v>
       </c>
@@ -8481,15 +8700,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="14.25">
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="2:19" ht="14.4">
+      <c r="B6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="5" t="s">
         <v>7</v>
       </c>
@@ -8497,10 +8716,10 @@
         <v>8</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J6" s="20" t="s">
         <v>41</v>
@@ -8511,28 +8730,28 @@
       <c r="L6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="36">
         <v>1</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31" t="s">
+      <c r="O6" s="36"/>
+      <c r="P6" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="31"/>
+      <c r="Q6" s="36"/>
       <c r="R6" s="5">
         <v>0</v>
       </c>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="2:19" ht="13.5">
-      <c r="B7" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="31" t="s">
+    <row r="7" spans="2:19" ht="13.2">
+      <c r="B7" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="5" t="s">
         <v>50</v>
       </c>
@@ -8540,7 +8759,9 @@
         <v>49</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="18">
+        <v>12.1</v>
+      </c>
       <c r="J7" s="26" t="s">
         <v>46</v>
       </c>
@@ -8548,30 +8769,30 @@
         <v>42</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" ref="L7:L87" si="0">IF(AND(K7="EI",J7="简单"),3,IF(AND(K7="EI",J7="普通"),4,IF(AND(K7="EI",J7="复杂"),6,IF(AND(K7="EO",J7="简单"),4,IF(AND(K7="EO",J7="普通"),5,IF(AND(K7="EO",J7="复杂"),7,IF(AND(K7="EQ",J7="简单"),3,IF(AND(K7="EQ",J7="普通"),4,IF(AND(K7="EQ",J7="复杂"),6,IF(AND(K7="ILF",J7="简单"),7,IF(AND(K7="ILF",J7="普通"),10,IF(AND(K7="ILF",J7="复杂"),15,IF(AND(K7="EIF",J7="简单"),5,IF(AND(K7="EIF",J7="普通"),7,IF(AND(K7="EIF",J7="复杂"),10,0)))))))))))))))</f>
+        <f t="shared" ref="L7:L98" si="0">IF(AND(K7="EI",J7="简单"),3,IF(AND(K7="EI",J7="普通"),4,IF(AND(K7="EI",J7="复杂"),6,IF(AND(K7="EO",J7="简单"),4,IF(AND(K7="EO",J7="普通"),5,IF(AND(K7="EO",J7="复杂"),7,IF(AND(K7="EQ",J7="简单"),3,IF(AND(K7="EQ",J7="普通"),4,IF(AND(K7="EQ",J7="复杂"),6,IF(AND(K7="ILF",J7="简单"),7,IF(AND(K7="ILF",J7="普通"),10,IF(AND(K7="ILF",J7="复杂"),15,IF(AND(K7="EIF",J7="简单"),5,IF(AND(K7="EIF",J7="普通"),7,IF(AND(K7="EIF",J7="复杂"),10,0)))))))))))))))</f>
         <v>7</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="36">
         <v>2</v>
       </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31" t="s">
+      <c r="O7" s="36"/>
+      <c r="P7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="31"/>
+      <c r="Q7" s="36"/>
       <c r="R7" s="5">
         <v>0</v>
       </c>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="2:19" ht="13.5">
+    <row r="8" spans="2:19" ht="13.2">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
       <c r="G8" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="18"/>
@@ -8585,20 +8806,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="36">
         <v>3</v>
       </c>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31" t="s">
+      <c r="O8" s="36"/>
+      <c r="P8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="31"/>
+      <c r="Q8" s="36"/>
       <c r="R8" s="5">
         <v>3</v>
       </c>
       <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="2:19" ht="13.5">
+    <row r="9" spans="2:19" ht="13.2">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9"/>
@@ -8619,20 +8840,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="36">
         <v>4</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31" t="s">
+      <c r="O9" s="36"/>
+      <c r="P9" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="31"/>
+      <c r="Q9" s="36"/>
       <c r="R9" s="5">
         <v>2</v>
       </c>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="2:19" ht="13.5">
+    <row r="10" spans="2:19" ht="13.2">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9"/>
@@ -8653,20 +8874,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="36">
         <v>5</v>
       </c>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31" t="s">
+      <c r="O10" s="36"/>
+      <c r="P10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="Q10" s="31"/>
+      <c r="Q10" s="36"/>
       <c r="R10" s="5">
         <v>3</v>
       </c>
       <c r="S10" s="5"/>
     </row>
-    <row r="11" spans="2:19" ht="13.5">
+    <row r="11" spans="2:19" ht="13.2">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9"/>
@@ -8687,22 +8908,22 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="36">
         <v>6</v>
       </c>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31" t="s">
+      <c r="O11" s="36"/>
+      <c r="P11" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="31"/>
+      <c r="Q11" s="36"/>
       <c r="R11" s="5">
         <v>3</v>
       </c>
       <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="2:19" ht="13.5">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+    <row r="12" spans="2:19" ht="13.2">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="9" t="s">
@@ -8723,20 +8944,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="36">
         <v>7</v>
       </c>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31" t="s">
+      <c r="O12" s="36"/>
+      <c r="P12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="31"/>
+      <c r="Q12" s="36"/>
       <c r="R12" s="5">
         <v>5</v>
       </c>
       <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="2:19" ht="13.5">
+    <row r="13" spans="2:19" ht="13.2">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
@@ -8757,20 +8978,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N13" s="31">
+      <c r="N13" s="36">
         <v>8</v>
       </c>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31" t="s">
+      <c r="O13" s="36"/>
+      <c r="P13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="31"/>
+      <c r="Q13" s="36"/>
       <c r="R13" s="5">
         <v>0</v>
       </c>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="2:19" ht="13.5">
+    <row r="14" spans="2:19" ht="13.2">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9"/>
@@ -8791,20 +9012,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N14" s="36">
         <v>9</v>
       </c>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31" t="s">
+      <c r="O14" s="36"/>
+      <c r="P14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="Q14" s="31"/>
+      <c r="Q14" s="36"/>
       <c r="R14" s="5">
         <v>4</v>
       </c>
       <c r="S14" s="5"/>
     </row>
-    <row r="15" spans="2:19" ht="13.5">
+    <row r="15" spans="2:19" ht="13.2">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9"/>
@@ -8825,20 +9046,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="36">
         <v>10</v>
       </c>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31" t="s">
+      <c r="O15" s="36"/>
+      <c r="P15" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="Q15" s="31"/>
+      <c r="Q15" s="36"/>
       <c r="R15" s="5">
         <v>1</v>
       </c>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="2:19" ht="13.5">
+    <row r="16" spans="2:19" ht="13.2">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9"/>
@@ -8859,22 +9080,22 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N16" s="31">
+      <c r="N16" s="36">
         <v>11</v>
       </c>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31" t="s">
+      <c r="O16" s="36"/>
+      <c r="P16" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Q16" s="31"/>
+      <c r="Q16" s="36"/>
       <c r="R16" s="5">
         <v>2</v>
       </c>
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="2:19" ht="13.5">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
+    <row r="17" spans="2:19" ht="13.2">
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
       <c r="F17" s="9" t="s">
@@ -8895,20 +9116,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="N17" s="31">
+      <c r="N17" s="36">
         <v>12</v>
       </c>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31" t="s">
+      <c r="O17" s="36"/>
+      <c r="P17" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="Q17" s="31"/>
+      <c r="Q17" s="36"/>
       <c r="R17" s="5">
         <v>5</v>
       </c>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="2:19" ht="13.5">
+    <row r="18" spans="2:19" ht="13.2">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9"/>
@@ -8929,20 +9150,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N18" s="31">
+      <c r="N18" s="36">
         <v>13</v>
       </c>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31" t="s">
+      <c r="O18" s="36"/>
+      <c r="P18" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="Q18" s="31"/>
+      <c r="Q18" s="36"/>
       <c r="R18" s="5">
         <v>3</v>
       </c>
       <c r="S18" s="5"/>
     </row>
-    <row r="19" spans="2:19" ht="13.5">
+    <row r="19" spans="2:19" ht="13.2">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9"/>
@@ -8963,20 +9184,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N19" s="31">
+      <c r="N19" s="36">
         <v>14</v>
       </c>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31" t="s">
+      <c r="O19" s="36"/>
+      <c r="P19" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="31"/>
+      <c r="Q19" s="36"/>
       <c r="R19" s="5">
         <v>4</v>
       </c>
       <c r="S19" s="5"/>
     </row>
-    <row r="20" spans="2:19" ht="13.5">
+    <row r="20" spans="2:19" ht="13.2">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9"/>
@@ -8997,19 +9218,19 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N20" s="32" t="s">
+      <c r="N20" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="34"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="52"/>
       <c r="R20" s="5">
         <f>SUM(R6:R19)</f>
         <v>35</v>
       </c>
       <c r="S20" s="5"/>
     </row>
-    <row r="21" spans="2:19" ht="13.5">
+    <row r="21" spans="2:19" ht="13.2">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9"/>
@@ -9041,9 +9262,9 @@
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
     </row>
-    <row r="22" spans="2:19" ht="13.5">
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
+    <row r="22" spans="2:19" ht="13.2">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
       <c r="F22" s="9" t="s">
@@ -9071,7 +9292,7 @@
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
     </row>
-    <row r="23" spans="2:19" ht="13.5">
+    <row r="23" spans="2:19" ht="13.2">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9"/>
@@ -9092,19 +9313,19 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N23" s="35" t="s">
+      <c r="N23" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35">
-        <f>ROUND(D88*(0.65+0.01*R20),0)</f>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49">
+        <f>ROUND(D99*(0.65+0.01*R20),0)</f>
         <v>351</v>
       </c>
-      <c r="Q23" s="35"/>
+      <c r="Q23" s="49"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
     </row>
-    <row r="24" spans="2:19" ht="13.5">
+    <row r="24" spans="2:19" ht="13.2">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9"/>
@@ -9128,14 +9349,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="13.5">
+    <row r="25" spans="2:19" ht="13.2">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="18"/>
@@ -9150,14 +9371,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="13.5">
+    <row r="26" spans="2:19" ht="13.2">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="18"/>
@@ -9172,14 +9393,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="13.5">
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
+    <row r="27" spans="2:19" ht="13.2">
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H27" s="29"/>
       <c r="I27" s="18"/>
@@ -9194,18 +9415,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="13.5">
+    <row r="28" spans="2:19" ht="13.2">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="18">
@@ -9222,14 +9443,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="13.5">
+    <row r="29" spans="2:19" ht="13.2">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="12"/>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="18"/>
@@ -9244,7 +9465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="13.5">
+    <row r="30" spans="2:19" ht="13.2">
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>
@@ -9252,14 +9473,14 @@
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="26"/>
       <c r="K30" s="28"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="2:19" ht="13.5">
+    <row r="31" spans="2:19" ht="13.2">
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
       <c r="D31" s="29"/>
@@ -9267,7 +9488,7 @@
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="26" t="s">
@@ -9281,7 +9502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:19" ht="13.5">
+    <row r="32" spans="2:19" ht="13.2">
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
       <c r="D32" s="29"/>
@@ -9289,7 +9510,7 @@
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
       <c r="H32" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="26" t="s">
@@ -9303,7 +9524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="13.5">
+    <row r="33" spans="2:12" ht="13.2">
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
       <c r="D33" s="29"/>
@@ -9311,7 +9532,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I33" s="27"/>
       <c r="J33" s="26" t="s">
@@ -9325,7 +9546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="13.5">
+    <row r="34" spans="2:12" ht="13.2">
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
       <c r="D34" s="29"/>
@@ -9333,21 +9554,21 @@
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
       <c r="H34" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I34" s="27"/>
       <c r="J34" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K34" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L34" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="13.5">
+    <row r="35" spans="2:12" ht="13.2">
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
       <c r="D35" s="29"/>
@@ -9355,28 +9576,28 @@
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I35" s="27"/>
       <c r="J35" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K35" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L35" s="8">
         <f t="shared" ref="L35" si="2">IF(AND(K35="EI",J35="简单"),3,IF(AND(K35="EI",J35="普通"),4,IF(AND(K35="EI",J35="复杂"),6,IF(AND(K35="EO",J35="简单"),4,IF(AND(K35="EO",J35="普通"),5,IF(AND(K35="EO",J35="复杂"),7,IF(AND(K35="EQ",J35="简单"),3,IF(AND(K35="EQ",J35="普通"),4,IF(AND(K35="EQ",J35="复杂"),6,IF(AND(K35="ILF",J35="简单"),7,IF(AND(K35="ILF",J35="普通"),10,IF(AND(K35="ILF",J35="复杂"),15,IF(AND(K35="EIF",J35="简单"),5,IF(AND(K35="EIF",J35="普通"),7,IF(AND(K35="EIF",J35="复杂"),10,0)))))))))))))))</f>
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="13.5">
+    <row r="36" spans="2:12" ht="13.2">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="12"/>
       <c r="E36" s="13"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="18"/>
@@ -9391,14 +9612,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="13.5">
+    <row r="37" spans="2:12" ht="13.2">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="12"/>
       <c r="E37" s="13"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="18"/>
@@ -9413,7 +9634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="13.5">
+    <row r="38" spans="2:12" ht="13.2">
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
       <c r="D38" s="29"/>
@@ -9421,14 +9642,14 @@
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
       <c r="H38" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I38" s="27"/>
       <c r="J38" s="26"/>
       <c r="K38" s="28"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" ht="13.5">
+    <row r="39" spans="2:12" ht="13.2">
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
       <c r="D39" s="29"/>
@@ -9436,49 +9657,49 @@
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I39" s="27"/>
       <c r="J39" s="26"/>
       <c r="K39" s="28"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="2:12" ht="13.5">
+    <row r="40" spans="2:12" ht="13.2">
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="12"/>
       <c r="E40" s="13"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H40" s="29"/>
       <c r="I40" s="18"/>
       <c r="J40" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L40" s="8">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="13.5">
+    <row r="41" spans="2:12" ht="13.2">
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="19"/>
       <c r="E41" s="20"/>
       <c r="F41" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="18">
-        <v>12.2</v>
+        <v>12.21</v>
       </c>
       <c r="J41" s="26" t="s">
         <v>45</v>
@@ -9491,14 +9712,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="13.5">
+    <row r="42" spans="2:12" ht="13.2">
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
       <c r="D42" s="19"/>
       <c r="E42" s="20"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="18"/>
@@ -9513,7 +9734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="13.5">
+    <row r="43" spans="2:12" ht="13.2">
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
       <c r="D43" s="29"/>
@@ -9521,14 +9742,14 @@
       <c r="F43" s="29"/>
       <c r="G43" s="29"/>
       <c r="H43" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I43" s="27"/>
       <c r="J43" s="26"/>
       <c r="K43" s="28"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="2:12" ht="13.5">
+    <row r="44" spans="2:12" ht="13.2">
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="29"/>
@@ -9536,14 +9757,14 @@
       <c r="F44" s="29"/>
       <c r="G44" s="29"/>
       <c r="H44" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I44" s="27"/>
       <c r="J44" s="26"/>
       <c r="K44" s="28"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="13.5">
+    <row r="45" spans="2:12" ht="13.2">
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="29"/>
@@ -9551,21 +9772,21 @@
       <c r="F45" s="29"/>
       <c r="G45" s="29"/>
       <c r="H45" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I45" s="27"/>
       <c r="J45" s="26"/>
       <c r="K45" s="28"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="2:12" ht="13.5">
+    <row r="46" spans="2:12" ht="13.2">
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
       <c r="D46" s="19"/>
       <c r="E46" s="20"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H46" s="29"/>
       <c r="I46" s="18"/>
@@ -9580,14 +9801,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="13.5">
+    <row r="47" spans="2:12" ht="13.2">
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
       <c r="D47" s="19"/>
       <c r="E47" s="20"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H47" s="29"/>
       <c r="I47" s="18"/>
@@ -9602,7 +9823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="13.5">
+    <row r="48" spans="2:12" ht="13.2">
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
       <c r="D48" s="29"/>
@@ -9610,45 +9831,45 @@
       <c r="F48" s="29"/>
       <c r="G48" s="29"/>
       <c r="H48" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I48" s="27"/>
       <c r="J48" s="26"/>
       <c r="K48" s="28"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="2:12" ht="13.5">
+    <row r="49" spans="2:12" ht="13.2">
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
       <c r="D49" s="19"/>
       <c r="E49" s="20"/>
       <c r="F49" s="19"/>
       <c r="G49" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H49" s="29"/>
       <c r="I49" s="18"/>
       <c r="J49" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K49" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L49" s="8">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="13.5">
+    <row r="50" spans="2:12" ht="13.2">
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
       <c r="D50" s="24"/>
       <c r="E50" s="25"/>
       <c r="F50" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H50" s="29"/>
       <c r="I50" s="27">
@@ -9665,14 +9886,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="13.5">
+    <row r="51" spans="2:12" ht="13.2">
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
       <c r="D51" s="24"/>
       <c r="E51" s="25"/>
       <c r="F51" s="24"/>
       <c r="G51" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H51" s="29"/>
       <c r="I51" s="22"/>
@@ -9687,14 +9908,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="13.5">
+    <row r="52" spans="2:12" ht="13.2">
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
       <c r="D52" s="24"/>
       <c r="E52" s="25"/>
       <c r="F52" s="24"/>
       <c r="G52" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H52" s="29"/>
       <c r="I52" s="22"/>
@@ -9709,14 +9930,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="13.5">
+    <row r="53" spans="2:12" ht="13.2">
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
       <c r="D53" s="24"/>
       <c r="E53" s="25"/>
       <c r="F53" s="24"/>
       <c r="G53" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H53" s="29"/>
       <c r="I53" s="22"/>
@@ -9731,7 +9952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="13.5">
+    <row r="54" spans="2:12" ht="13.2">
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
       <c r="D54" s="29"/>
@@ -9739,14 +9960,14 @@
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
       <c r="H54" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I54" s="27"/>
       <c r="J54" s="26"/>
       <c r="K54" s="28"/>
       <c r="L54" s="8"/>
     </row>
-    <row r="55" spans="2:12" ht="13.5">
+    <row r="55" spans="2:12" ht="13.2">
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
       <c r="D55" s="29"/>
@@ -9754,47 +9975,47 @@
       <c r="F55" s="29"/>
       <c r="G55" s="29"/>
       <c r="H55" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I55" s="27"/>
       <c r="J55" s="26"/>
       <c r="K55" s="28"/>
       <c r="L55" s="8"/>
     </row>
-    <row r="56" spans="2:12" ht="13.5">
+    <row r="56" spans="2:12" ht="13.2">
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
       <c r="D56" s="24"/>
       <c r="E56" s="25"/>
       <c r="F56" s="24"/>
       <c r="G56" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H56" s="29"/>
       <c r="I56" s="22"/>
       <c r="J56" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K56" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L56" s="8">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="13.5">
+    <row r="57" spans="2:12" ht="13.2">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H57" s="29"/>
       <c r="I57" s="18">
@@ -9811,17 +10032,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="13.5">
+    <row r="58" spans="2:12" ht="13.2">
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="9"/>
       <c r="E58" s="10"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="26" t="s">
@@ -9843,7 +10064,7 @@
       <c r="F59" s="29"/>
       <c r="G59" s="29"/>
       <c r="H59" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I59" s="27"/>
       <c r="J59" s="26"/>
@@ -9858,7 +10079,7 @@
       <c r="F60" s="29"/>
       <c r="G60" s="29"/>
       <c r="H60" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I60" s="27"/>
       <c r="J60" s="26"/>
@@ -9873,21 +10094,21 @@
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
       <c r="H61" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I61" s="27"/>
       <c r="J61" s="26"/>
       <c r="K61" s="28"/>
       <c r="L61" s="8"/>
     </row>
-    <row r="62" spans="2:12" ht="13.5">
+    <row r="62" spans="2:12" ht="13.2">
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="9"/>
       <c r="E62" s="10"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H62" s="11"/>
       <c r="I62" s="18"/>
@@ -9902,14 +10123,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="13.5">
+    <row r="63" spans="2:12" ht="13.2">
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="9"/>
       <c r="E63" s="10"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H63" s="11"/>
       <c r="I63" s="18"/>
@@ -9924,40 +10145,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="13.5">
+    <row r="64" spans="2:12" ht="13.2">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="12"/>
       <c r="E64" s="13"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H64" s="11"/>
       <c r="I64" s="18"/>
       <c r="J64" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L64" s="8">
         <f t="shared" ref="L64" si="6">IF(AND(K64="EI",J64="简单"),3,IF(AND(K64="EI",J64="普通"),4,IF(AND(K64="EI",J64="复杂"),6,IF(AND(K64="EO",J64="简单"),4,IF(AND(K64="EO",J64="普通"),5,IF(AND(K64="EO",J64="复杂"),7,IF(AND(K64="EQ",J64="简单"),3,IF(AND(K64="EQ",J64="普通"),4,IF(AND(K64="EQ",J64="复杂"),6,IF(AND(K64="ILF",J64="简单"),7,IF(AND(K64="ILF",J64="普通"),10,IF(AND(K64="ILF",J64="复杂"),15,IF(AND(K64="EIF",J64="简单"),5,IF(AND(K64="EIF",J64="普通"),7,IF(AND(K64="EIF",J64="复杂"),10,0)))))))))))))))</f>
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="13.5">
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
+    <row r="65" spans="2:12" ht="13.2">
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
       <c r="D65" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H65" s="29"/>
       <c r="I65" s="18">
@@ -9974,14 +10195,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="13.5">
+    <row r="66" spans="2:12" ht="13.2">
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="9"/>
       <c r="E66" s="10"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H66" s="29"/>
       <c r="I66" s="18"/>
@@ -9996,7 +10217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="13.5">
+    <row r="67" spans="2:12" ht="13.2">
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
       <c r="D67" s="29"/>
@@ -10004,14 +10225,14 @@
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
       <c r="H67" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I67" s="27"/>
       <c r="J67" s="26"/>
       <c r="K67" s="28"/>
       <c r="L67" s="8"/>
     </row>
-    <row r="68" spans="2:12" ht="13.5">
+    <row r="68" spans="2:12" ht="13.2">
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
       <c r="D68" s="29"/>
@@ -10019,14 +10240,14 @@
       <c r="F68" s="29"/>
       <c r="G68" s="29"/>
       <c r="H68" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I68" s="27"/>
       <c r="J68" s="26"/>
       <c r="K68" s="28"/>
       <c r="L68" s="8"/>
     </row>
-    <row r="69" spans="2:12" ht="13.5">
+    <row r="69" spans="2:12" ht="13.2">
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
       <c r="D69" s="29"/>
@@ -10034,21 +10255,21 @@
       <c r="F69" s="29"/>
       <c r="G69" s="29"/>
       <c r="H69" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I69" s="27"/>
       <c r="J69" s="26"/>
       <c r="K69" s="28"/>
       <c r="L69" s="8"/>
     </row>
-    <row r="70" spans="2:12" ht="13.5">
+    <row r="70" spans="2:12" ht="13.2">
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="9"/>
       <c r="E70" s="10"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H70" s="29"/>
       <c r="I70" s="18"/>
@@ -10063,19 +10284,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="13.5">
+    <row r="71" spans="2:12" ht="13.2">
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="9"/>
       <c r="E71" s="10"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H71" s="29"/>
       <c r="I71" s="18"/>
       <c r="J71" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>44</v>
@@ -10085,14 +10306,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="13.5">
+    <row r="72" spans="2:12" ht="13.2">
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="9"/>
       <c r="E72" s="10"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H72" s="29"/>
       <c r="I72" s="18"/>
@@ -10100,27 +10321,27 @@
         <v>45</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L72" s="8">
         <f>IF(AND(K72="EI",J72="简单"),3,IF(AND(K72="EI",J72="普通"),4,IF(AND(K72="EI",J72="复杂"),6,IF(AND(K72="EO",J72="简单"),4,IF(AND(K72="EO",J72="普通"),5,IF(AND(K72="EO",J72="复杂"),7,IF(AND(K72="EQ",J72="简单"),3,IF(AND(K72="EQ",J72="普通"),4,IF(AND(K72="EQ",J72="复杂"),6,IF(AND(K72="ILF",J72="简单"),7,IF(AND(K72="ILF",J72="普通"),10,IF(AND(K72="ILF",J72="复杂"),15,IF(AND(K72="EIF",J72="简单"),5,IF(AND(K72="EIF",J72="普通"),7,IF(AND(K72="EIF",J72="复杂"),10,0)))))))))))))))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="13.5">
+    <row r="73" spans="2:12" ht="13.2">
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
       <c r="D73" s="29"/>
       <c r="E73" s="30"/>
       <c r="F73" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H73" s="29"/>
       <c r="I73" s="27">
-        <v>12.2</v>
+        <v>12.21</v>
       </c>
       <c r="J73" s="26" t="s">
         <v>45</v>
@@ -10133,14 +10354,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="13.5">
+    <row r="74" spans="2:12" ht="13.2">
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
       <c r="D74" s="29"/>
       <c r="E74" s="30"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H74" s="29"/>
       <c r="I74" s="27"/>
@@ -10155,14 +10376,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="13.5">
+    <row r="75" spans="2:12" ht="13.2">
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
       <c r="D75" s="29"/>
       <c r="E75" s="30"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H75" s="29"/>
       <c r="I75" s="27"/>
@@ -10170,14 +10391,14 @@
       <c r="K75" s="28"/>
       <c r="L75" s="8"/>
     </row>
-    <row r="76" spans="2:12" ht="13.5">
+    <row r="76" spans="2:12" ht="13.2">
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
       <c r="D76" s="29"/>
       <c r="E76" s="30"/>
       <c r="F76" s="29"/>
       <c r="G76" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H76" s="29"/>
       <c r="I76" s="27"/>
@@ -10185,14 +10406,14 @@
       <c r="K76" s="28"/>
       <c r="L76" s="8"/>
     </row>
-    <row r="77" spans="2:12" ht="13.5">
+    <row r="77" spans="2:12" ht="13.2">
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
       <c r="D77" s="29"/>
       <c r="E77" s="30"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H77" s="29"/>
       <c r="I77" s="27"/>
@@ -10200,14 +10421,14 @@
       <c r="K77" s="28"/>
       <c r="L77" s="8"/>
     </row>
-    <row r="78" spans="2:12" ht="13.5">
+    <row r="78" spans="2:12" ht="13.2">
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="29"/>
       <c r="E78" s="30"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H78" s="29"/>
       <c r="I78" s="27"/>
@@ -10222,14 +10443,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="13.5">
+    <row r="79" spans="2:12" ht="13.2">
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
       <c r="D79" s="29"/>
       <c r="E79" s="30"/>
       <c r="F79" s="29"/>
       <c r="G79" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H79" s="29"/>
       <c r="I79" s="27"/>
@@ -10244,23 +10465,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="13.5">
-      <c r="B80" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="E80" s="31"/>
+    <row r="80" spans="2:12" ht="13.2">
+      <c r="B80" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" s="37"/>
+      <c r="D80" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E80" s="36"/>
       <c r="F80" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G80" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H80" s="29"/>
-      <c r="I80" s="27"/>
+      <c r="I80" s="27">
+        <v>12.1</v>
+      </c>
       <c r="J80" s="26" t="s">
         <v>45</v>
       </c>
@@ -10272,19 +10495,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="13.5">
+    <row r="81" spans="2:12" ht="13.2">
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="29"/>
       <c r="E81" s="30"/>
       <c r="F81" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H81" s="29"/>
-      <c r="I81" s="27"/>
+      <c r="I81" s="27">
+        <v>12.6</v>
+      </c>
       <c r="J81" s="26" t="s">
         <v>45</v>
       </c>
@@ -10296,14 +10521,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="13.5">
+    <row r="82" spans="2:12" ht="13.2">
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
       <c r="D82" s="29"/>
       <c r="E82" s="30"/>
       <c r="F82" s="11"/>
       <c r="G82" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H82" s="29"/>
       <c r="I82" s="27"/>
@@ -10318,13 +10543,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="13.5">
+    <row r="83" spans="2:12" ht="13.2">
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="29"/>
       <c r="E83" s="30"/>
       <c r="F83" s="11"/>
-      <c r="G83" s="29"/>
+      <c r="G83" s="29" t="s">
+        <v>135</v>
+      </c>
       <c r="H83" s="29"/>
       <c r="I83" s="27"/>
       <c r="J83" s="26" t="s">
@@ -10338,36 +10565,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="13.5">
+    <row r="84" spans="2:12" ht="13.2">
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
       <c r="D84" s="29"/>
       <c r="E84" s="30"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="29"/>
+      <c r="F84" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="G84" s="32" t="s">
+        <v>134</v>
+      </c>
       <c r="H84" s="29"/>
-      <c r="I84" s="27"/>
+      <c r="I84" s="27">
+        <v>12.9</v>
+      </c>
       <c r="J84" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L84" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="13.5">
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
+    <row r="85" spans="2:12" ht="13.2">
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
       <c r="D85" s="29"/>
       <c r="E85" s="30"/>
-      <c r="F85" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G85" s="29" t="s">
-        <v>57</v>
+      <c r="F85" s="29"/>
+      <c r="G85" s="32" t="s">
+        <v>137</v>
       </c>
       <c r="H85" s="29"/>
       <c r="I85" s="27"/>
@@ -10382,14 +10613,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="13.5">
+    <row r="86" spans="2:12" ht="13.2">
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="9"/>
       <c r="E86" s="10"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="H86" s="29"/>
       <c r="I86" s="18"/>
@@ -10397,60 +10628,334 @@
         <v>45</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L86" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="13.5">
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H87" s="29"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="26" t="s">
+    <row r="87" spans="2:12" ht="13.2">
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="H87" s="32"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="8"/>
+    </row>
+    <row r="88" spans="2:12" ht="13.2">
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="G88" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H88" s="32"/>
+      <c r="I88" s="31">
+        <v>12.14</v>
+      </c>
+      <c r="J88" s="26"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="8"/>
+    </row>
+    <row r="89" spans="2:12" ht="13.2">
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="H89" s="32"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="8"/>
+    </row>
+    <row r="90" spans="2:12" ht="13.2">
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H90" s="32"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="8"/>
+    </row>
+    <row r="91" spans="2:12" ht="13.2">
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="H91" s="32"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="8"/>
+    </row>
+    <row r="92" spans="2:12" ht="13.2">
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H92" s="32"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="8"/>
+    </row>
+    <row r="93" spans="2:12" ht="13.2">
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="G93" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="H93" s="32"/>
+      <c r="I93" s="31">
+        <v>12.21</v>
+      </c>
+      <c r="J93" s="26"/>
+      <c r="K93" s="34"/>
+      <c r="L93" s="8"/>
+    </row>
+    <row r="94" spans="2:12" ht="13.2">
+      <c r="B94" s="34"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="H94" s="32"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="34"/>
+      <c r="L94" s="8"/>
+    </row>
+    <row r="95" spans="2:12" ht="13.2">
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H95" s="32"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="34"/>
+      <c r="L95" s="8"/>
+    </row>
+    <row r="96" spans="2:12" ht="13.2">
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="H96" s="32"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="34"/>
+      <c r="L96" s="8"/>
+    </row>
+    <row r="97" spans="2:12" ht="13.2">
+      <c r="B97" s="34"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="H97" s="32"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="34"/>
+      <c r="L97" s="8"/>
+    </row>
+    <row r="98" spans="2:12" ht="13.2">
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H98" s="29"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="K87" s="7" t="s">
+      <c r="K98" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L87" s="8">
+      <c r="L98" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="13.5" hidden="1">
-      <c r="B88" s="39" t="s">
+    <row r="99" spans="2:12" ht="13.2" hidden="1">
+      <c r="B99" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C88" s="39"/>
-      <c r="D88" s="14">
-        <f>SUM(L7:L88)</f>
+      <c r="C99" s="46"/>
+      <c r="D99" s="14">
+        <f>SUM(L7:L99)</f>
         <v>351</v>
       </c>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="15"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="15"/>
+    </row>
+    <row r="100" spans="2:12" ht="13.2">
+      <c r="B100" s="35"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="15"/>
+    </row>
+    <row r="102" spans="2:12">
+      <c r="B102" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C102" s="54"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="54"/>
+      <c r="H102" s="54"/>
+      <c r="I102" s="55"/>
+    </row>
+    <row r="103" spans="2:12">
+      <c r="B103" s="56"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="57"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="58"/>
+    </row>
+    <row r="104" spans="2:12">
+      <c r="B104" s="56"/>
+      <c r="C104" s="57"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="57"/>
+      <c r="F104" s="57"/>
+      <c r="G104" s="57"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="58"/>
+    </row>
+    <row r="105" spans="2:12">
+      <c r="B105" s="59"/>
+      <c r="C105" s="60"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="60"/>
+      <c r="F105" s="60"/>
+      <c r="G105" s="60"/>
+      <c r="H105" s="60"/>
+      <c r="I105" s="61"/>
     </row>
   </sheetData>
-  <autoFilter ref="B6:L88">
+  <autoFilter ref="B6:L99">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
-  <mergeCells count="52">
+  <mergeCells count="53">
+    <mergeCell ref="B102:I105"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:K5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B12:C12"/>
@@ -10458,61 +10963,16 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R6:R19">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K98">
       <formula1>"EI,EO,EQ,ILF,EIF"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J98">
       <formula1>"复杂,普通,简单"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/2、计划/功能点估算简表V1.0.xlsx
+++ b/doc/2、计划/功能点估算简表V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8508" windowHeight="3528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="3525"/>
   </bookViews>
   <sheets>
     <sheet name="第3章 范围分解与功能点估计" sheetId="32" r:id="rId1"/>
@@ -741,7 +741,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>开发截止时间12月22日，12月22日~12月24日 进行第一轮测试。从12月26日~12月31日进行第二轮测试，在1月份第一个工作日进行上线。</t>
+      <t>开发截止时间12月22日，12月24日~12月26日 进行第一轮测试。从12月27日~12月31日进行第二轮测试，在1月份第一个工作日进行上线。</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1711,15 +1711,6 @@
     <xf numFmtId="0" fontId="30" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1746,6 +1737,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -8583,24 +8583,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="57" workbookViewId="0">
-      <selection activeCell="V104" sqref="V104"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="57" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="11.09765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="2" customWidth="1"/>
     <col min="7" max="8" width="10" style="2" customWidth="1"/>
     <col min="9" max="9" width="10" style="3" customWidth="1"/>
-    <col min="10" max="11" width="7.3984375" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="6.69921875" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="7.375" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="6.75" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.3984375" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="5.19921875" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.375" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.25" style="2" hidden="1" customWidth="1"/>
     <col min="16" max="19" width="9" style="2" hidden="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="2"/>
   </cols>
@@ -8629,7 +8629,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="2:19" ht="13.2">
+    <row r="3" spans="2:19" ht="13.5">
       <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
@@ -8644,7 +8644,7 @@
       <c r="K3" s="39"/>
       <c r="L3" s="40"/>
     </row>
-    <row r="4" spans="2:19" ht="14.4">
+    <row r="4" spans="2:19" ht="14.25">
       <c r="B4" s="41" t="s">
         <v>1</v>
       </c>
@@ -8669,7 +8669,7 @@
       <c r="R4" s="48"/>
       <c r="S4" s="48"/>
     </row>
-    <row r="5" spans="2:19" ht="13.2">
+    <row r="5" spans="2:19" ht="13.5">
       <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="14.4">
+    <row r="6" spans="2:19" ht="14.25">
       <c r="B6" s="36" t="s">
         <v>5</v>
       </c>
@@ -8743,7 +8743,7 @@
       </c>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="2:19" ht="13.2">
+    <row r="7" spans="2:19" ht="13.5">
       <c r="B7" s="37" t="s">
         <v>70</v>
       </c>
@@ -8785,7 +8785,7 @@
       </c>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="2:19" ht="13.2">
+    <row r="8" spans="2:19" ht="13.5">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="9"/>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="2:19" ht="13.2">
+    <row r="9" spans="2:19" ht="13.5">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9"/>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="2:19" ht="13.2">
+    <row r="10" spans="2:19" ht="13.5">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9"/>
@@ -8887,7 +8887,7 @@
       </c>
       <c r="S10" s="5"/>
     </row>
-    <row r="11" spans="2:19" ht="13.2">
+    <row r="11" spans="2:19" ht="13.5">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9"/>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="2:19" ht="13.2">
+    <row r="12" spans="2:19" ht="13.5">
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
       <c r="D12" s="9"/>
@@ -8957,7 +8957,7 @@
       </c>
       <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="2:19" ht="13.2">
+    <row r="13" spans="2:19" ht="13.5">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="2:19" ht="13.2">
+    <row r="14" spans="2:19" ht="13.5">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9"/>
@@ -9025,7 +9025,7 @@
       </c>
       <c r="S14" s="5"/>
     </row>
-    <row r="15" spans="2:19" ht="13.2">
+    <row r="15" spans="2:19" ht="13.5">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9"/>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="2:19" ht="13.2">
+    <row r="16" spans="2:19" ht="13.5">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9"/>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="2:19" ht="13.2">
+    <row r="17" spans="2:19" ht="13.5">
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
       <c r="D17" s="9"/>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="2:19" ht="13.2">
+    <row r="18" spans="2:19" ht="13.5">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9"/>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="S18" s="5"/>
     </row>
-    <row r="19" spans="2:19" ht="13.2">
+    <row r="19" spans="2:19" ht="13.5">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9"/>
@@ -9197,7 +9197,7 @@
       </c>
       <c r="S19" s="5"/>
     </row>
-    <row r="20" spans="2:19" ht="13.2">
+    <row r="20" spans="2:19" ht="13.5">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9"/>
@@ -9218,19 +9218,19 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N20" s="50" t="s">
+      <c r="N20" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="52"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="61"/>
       <c r="R20" s="5">
         <f>SUM(R6:R19)</f>
         <v>35</v>
       </c>
       <c r="S20" s="5"/>
     </row>
-    <row r="21" spans="2:19" ht="13.2">
+    <row r="21" spans="2:19" ht="13.5">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9"/>
@@ -9262,7 +9262,7 @@
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
     </row>
-    <row r="22" spans="2:19" ht="13.2">
+    <row r="22" spans="2:19" ht="13.5">
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
       <c r="D22" s="9"/>
@@ -9292,7 +9292,7 @@
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
     </row>
-    <row r="23" spans="2:19" ht="13.2">
+    <row r="23" spans="2:19" ht="13.5">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9"/>
@@ -9325,7 +9325,7 @@
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
     </row>
-    <row r="24" spans="2:19" ht="13.2">
+    <row r="24" spans="2:19" ht="13.5">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9"/>
@@ -9349,7 +9349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="13.2">
+    <row r="25" spans="2:19" ht="13.5">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9"/>
@@ -9371,7 +9371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="13.2">
+    <row r="26" spans="2:19" ht="13.5">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9"/>
@@ -9393,7 +9393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="13.2">
+    <row r="27" spans="2:19" ht="13.5">
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="9"/>
@@ -9415,7 +9415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:19" ht="13.2">
+    <row r="28" spans="2:19" ht="13.5">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="12" t="s">
@@ -9443,7 +9443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:19" ht="13.2">
+    <row r="29" spans="2:19" ht="13.5">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="12"/>
@@ -9465,7 +9465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:19" ht="13.2">
+    <row r="30" spans="2:19" ht="13.5">
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>
@@ -9480,7 +9480,7 @@
       <c r="K30" s="28"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="2:19" ht="13.2">
+    <row r="31" spans="2:19" ht="13.5">
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
       <c r="D31" s="29"/>
@@ -9502,7 +9502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:19" ht="13.2">
+    <row r="32" spans="2:19" ht="13.5">
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
       <c r="D32" s="29"/>
@@ -9524,7 +9524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="13.2">
+    <row r="33" spans="2:12" ht="13.5">
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
       <c r="D33" s="29"/>
@@ -9546,7 +9546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="13.2">
+    <row r="34" spans="2:12" ht="13.5">
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
       <c r="D34" s="29"/>
@@ -9568,7 +9568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="13.2">
+    <row r="35" spans="2:12" ht="13.5">
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
       <c r="D35" s="29"/>
@@ -9590,7 +9590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="13.2">
+    <row r="36" spans="2:12" ht="13.5">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="12"/>
@@ -9612,7 +9612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="13.2">
+    <row r="37" spans="2:12" ht="13.5">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="12"/>
@@ -9634,7 +9634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="13.2">
+    <row r="38" spans="2:12" ht="13.5">
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
       <c r="D38" s="29"/>
@@ -9649,7 +9649,7 @@
       <c r="K38" s="28"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" ht="13.2">
+    <row r="39" spans="2:12" ht="13.5">
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
       <c r="D39" s="29"/>
@@ -9664,7 +9664,7 @@
       <c r="K39" s="28"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="2:12" ht="13.2">
+    <row r="40" spans="2:12" ht="13.5">
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="12"/>
@@ -9686,7 +9686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="13.2">
+    <row r="41" spans="2:12" ht="13.5">
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="19"/>
@@ -9712,7 +9712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="13.2">
+    <row r="42" spans="2:12" ht="13.5">
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
       <c r="D42" s="19"/>
@@ -9734,7 +9734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="13.2">
+    <row r="43" spans="2:12" ht="13.5">
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
       <c r="D43" s="29"/>
@@ -9749,7 +9749,7 @@
       <c r="K43" s="28"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="2:12" ht="13.2">
+    <row r="44" spans="2:12" ht="13.5">
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="29"/>
@@ -9764,7 +9764,7 @@
       <c r="K44" s="28"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="13.2">
+    <row r="45" spans="2:12" ht="13.5">
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="29"/>
@@ -9779,7 +9779,7 @@
       <c r="K45" s="28"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="2:12" ht="13.2">
+    <row r="46" spans="2:12" ht="13.5">
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
       <c r="D46" s="19"/>
@@ -9801,7 +9801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="13.2">
+    <row r="47" spans="2:12" ht="13.5">
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
       <c r="D47" s="19"/>
@@ -9823,7 +9823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="13.2">
+    <row r="48" spans="2:12" ht="13.5">
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
       <c r="D48" s="29"/>
@@ -9838,7 +9838,7 @@
       <c r="K48" s="28"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="2:12" ht="13.2">
+    <row r="49" spans="2:12" ht="13.5">
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
       <c r="D49" s="19"/>
@@ -9860,7 +9860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="13.2">
+    <row r="50" spans="2:12" ht="13.5">
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
       <c r="D50" s="24"/>
@@ -9873,7 +9873,7 @@
       </c>
       <c r="H50" s="29"/>
       <c r="I50" s="27">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="J50" s="26" t="s">
         <v>45</v>
@@ -9886,7 +9886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="13.2">
+    <row r="51" spans="2:12" ht="13.5">
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
       <c r="D51" s="24"/>
@@ -9908,7 +9908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="13.2">
+    <row r="52" spans="2:12" ht="13.5">
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
       <c r="D52" s="24"/>
@@ -9930,7 +9930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="13.2">
+    <row r="53" spans="2:12" ht="13.5">
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
       <c r="D53" s="24"/>
@@ -9952,7 +9952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="13.2">
+    <row r="54" spans="2:12" ht="13.5">
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
       <c r="D54" s="29"/>
@@ -9967,7 +9967,7 @@
       <c r="K54" s="28"/>
       <c r="L54" s="8"/>
     </row>
-    <row r="55" spans="2:12" ht="13.2">
+    <row r="55" spans="2:12" ht="13.5">
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
       <c r="D55" s="29"/>
@@ -9982,7 +9982,7 @@
       <c r="K55" s="28"/>
       <c r="L55" s="8"/>
     </row>
-    <row r="56" spans="2:12" ht="13.2">
+    <row r="56" spans="2:12" ht="13.5">
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
       <c r="D56" s="24"/>
@@ -10004,7 +10004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="13.2">
+    <row r="57" spans="2:12" ht="13.5">
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="9" t="s">
@@ -10019,7 +10019,7 @@
       </c>
       <c r="H57" s="29"/>
       <c r="I57" s="18">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="J57" s="26" t="s">
         <v>45</v>
@@ -10032,7 +10032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="13.2">
+    <row r="58" spans="2:12" ht="13.5">
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="9"/>
@@ -10101,7 +10101,7 @@
       <c r="K61" s="28"/>
       <c r="L61" s="8"/>
     </row>
-    <row r="62" spans="2:12" ht="13.2">
+    <row r="62" spans="2:12" ht="13.5">
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="9"/>
@@ -10123,7 +10123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="13.2">
+    <row r="63" spans="2:12" ht="13.5">
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="9"/>
@@ -10145,7 +10145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="13.2">
+    <row r="64" spans="2:12" ht="13.5">
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="12"/>
@@ -10167,7 +10167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="13.2">
+    <row r="65" spans="2:12" ht="13.5">
       <c r="B65" s="37"/>
       <c r="C65" s="37"/>
       <c r="D65" s="9" t="s">
@@ -10182,7 +10182,7 @@
       </c>
       <c r="H65" s="29"/>
       <c r="I65" s="18">
-        <v>12.13</v>
+        <v>12.16</v>
       </c>
       <c r="J65" s="26" t="s">
         <v>45</v>
@@ -10195,7 +10195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="13.2">
+    <row r="66" spans="2:12" ht="13.5">
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="9"/>
@@ -10217,7 +10217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="13.2">
+    <row r="67" spans="2:12" ht="13.5">
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
       <c r="D67" s="29"/>
@@ -10232,7 +10232,7 @@
       <c r="K67" s="28"/>
       <c r="L67" s="8"/>
     </row>
-    <row r="68" spans="2:12" ht="13.2">
+    <row r="68" spans="2:12" ht="13.5">
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
       <c r="D68" s="29"/>
@@ -10247,7 +10247,7 @@
       <c r="K68" s="28"/>
       <c r="L68" s="8"/>
     </row>
-    <row r="69" spans="2:12" ht="13.2">
+    <row r="69" spans="2:12" ht="13.5">
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
       <c r="D69" s="29"/>
@@ -10262,7 +10262,7 @@
       <c r="K69" s="28"/>
       <c r="L69" s="8"/>
     </row>
-    <row r="70" spans="2:12" ht="13.2">
+    <row r="70" spans="2:12" ht="13.5">
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="9"/>
@@ -10284,7 +10284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="13.2">
+    <row r="71" spans="2:12" ht="13.5">
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="9"/>
@@ -10306,7 +10306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="13.2">
+    <row r="72" spans="2:12" ht="13.5">
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="9"/>
@@ -10328,7 +10328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="13.2">
+    <row r="73" spans="2:12" ht="13.5">
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
       <c r="D73" s="29"/>
@@ -10341,7 +10341,7 @@
       </c>
       <c r="H73" s="29"/>
       <c r="I73" s="27">
-        <v>12.21</v>
+        <v>12.23</v>
       </c>
       <c r="J73" s="26" t="s">
         <v>45</v>
@@ -10354,7 +10354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="13.2">
+    <row r="74" spans="2:12" ht="13.5">
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
       <c r="D74" s="29"/>
@@ -10376,7 +10376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="13.2">
+    <row r="75" spans="2:12" ht="13.5">
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
       <c r="D75" s="29"/>
@@ -10391,7 +10391,7 @@
       <c r="K75" s="28"/>
       <c r="L75" s="8"/>
     </row>
-    <row r="76" spans="2:12" ht="13.2">
+    <row r="76" spans="2:12" ht="13.5">
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
       <c r="D76" s="29"/>
@@ -10406,7 +10406,7 @@
       <c r="K76" s="28"/>
       <c r="L76" s="8"/>
     </row>
-    <row r="77" spans="2:12" ht="13.2">
+    <row r="77" spans="2:12" ht="13.5">
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
       <c r="D77" s="29"/>
@@ -10421,7 +10421,7 @@
       <c r="K77" s="28"/>
       <c r="L77" s="8"/>
     </row>
-    <row r="78" spans="2:12" ht="13.2">
+    <row r="78" spans="2:12" ht="13.5">
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="29"/>
@@ -10443,7 +10443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="13.2">
+    <row r="79" spans="2:12" ht="13.5">
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
       <c r="D79" s="29"/>
@@ -10465,7 +10465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="13.2">
+    <row r="80" spans="2:12" ht="13.5">
       <c r="B80" s="37" t="s">
         <v>126</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="13.2">
+    <row r="81" spans="2:12" ht="13.5">
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="29"/>
@@ -10508,7 +10508,7 @@
       </c>
       <c r="H81" s="29"/>
       <c r="I81" s="27">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="J81" s="26" t="s">
         <v>45</v>
@@ -10521,7 +10521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="13.2">
+    <row r="82" spans="2:12" ht="13.5">
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
       <c r="D82" s="29"/>
@@ -10543,7 +10543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="13.2">
+    <row r="83" spans="2:12" ht="13.5">
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="29"/>
@@ -10565,7 +10565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="13.2">
+    <row r="84" spans="2:12" ht="13.5">
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
       <c r="D84" s="29"/>
@@ -10578,7 +10578,7 @@
       </c>
       <c r="H84" s="29"/>
       <c r="I84" s="27">
-        <v>12.9</v>
+        <v>12.16</v>
       </c>
       <c r="J84" s="26" t="s">
         <v>62</v>
@@ -10591,7 +10591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="13.2">
+    <row r="85" spans="2:12" ht="13.5">
       <c r="B85" s="37"/>
       <c r="C85" s="37"/>
       <c r="D85" s="29"/>
@@ -10613,7 +10613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="13.2">
+    <row r="86" spans="2:12" ht="13.5">
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="9"/>
@@ -10635,7 +10635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="13.2">
+    <row r="87" spans="2:12" ht="13.5">
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
       <c r="D87" s="32"/>
@@ -10650,7 +10650,7 @@
       <c r="K87" s="34"/>
       <c r="L87" s="8"/>
     </row>
-    <row r="88" spans="2:12" ht="13.2">
+    <row r="88" spans="2:12" ht="13.5">
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
       <c r="D88" s="32"/>
@@ -10663,13 +10663,13 @@
       </c>
       <c r="H88" s="32"/>
       <c r="I88" s="31">
-        <v>12.14</v>
+        <v>12.21</v>
       </c>
       <c r="J88" s="26"/>
       <c r="K88" s="34"/>
       <c r="L88" s="8"/>
     </row>
-    <row r="89" spans="2:12" ht="13.2">
+    <row r="89" spans="2:12" ht="13.5">
       <c r="B89" s="34"/>
       <c r="C89" s="34"/>
       <c r="D89" s="32"/>
@@ -10684,7 +10684,7 @@
       <c r="K89" s="34"/>
       <c r="L89" s="8"/>
     </row>
-    <row r="90" spans="2:12" ht="13.2">
+    <row r="90" spans="2:12" ht="13.5">
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
       <c r="D90" s="32"/>
@@ -10699,7 +10699,7 @@
       <c r="K90" s="34"/>
       <c r="L90" s="8"/>
     </row>
-    <row r="91" spans="2:12" ht="13.2">
+    <row r="91" spans="2:12" ht="13.5">
       <c r="B91" s="34"/>
       <c r="C91" s="34"/>
       <c r="D91" s="32"/>
@@ -10714,7 +10714,7 @@
       <c r="K91" s="34"/>
       <c r="L91" s="8"/>
     </row>
-    <row r="92" spans="2:12" ht="13.2">
+    <row r="92" spans="2:12" ht="13.5">
       <c r="B92" s="34"/>
       <c r="C92" s="34"/>
       <c r="D92" s="32"/>
@@ -10729,7 +10729,7 @@
       <c r="K92" s="34"/>
       <c r="L92" s="8"/>
     </row>
-    <row r="93" spans="2:12" ht="13.2">
+    <row r="93" spans="2:12" ht="13.5">
       <c r="B93" s="34"/>
       <c r="C93" s="34"/>
       <c r="D93" s="32"/>
@@ -10742,13 +10742,13 @@
       </c>
       <c r="H93" s="32"/>
       <c r="I93" s="31">
-        <v>12.21</v>
+        <v>12.23</v>
       </c>
       <c r="J93" s="26"/>
       <c r="K93" s="34"/>
       <c r="L93" s="8"/>
     </row>
-    <row r="94" spans="2:12" ht="13.2">
+    <row r="94" spans="2:12" ht="13.5">
       <c r="B94" s="34"/>
       <c r="C94" s="34"/>
       <c r="D94" s="32"/>
@@ -10763,7 +10763,7 @@
       <c r="K94" s="34"/>
       <c r="L94" s="8"/>
     </row>
-    <row r="95" spans="2:12" ht="13.2">
+    <row r="95" spans="2:12" ht="13.5">
       <c r="B95" s="34"/>
       <c r="C95" s="34"/>
       <c r="D95" s="32"/>
@@ -10778,7 +10778,7 @@
       <c r="K95" s="34"/>
       <c r="L95" s="8"/>
     </row>
-    <row r="96" spans="2:12" ht="13.2">
+    <row r="96" spans="2:12" ht="13.5">
       <c r="B96" s="34"/>
       <c r="C96" s="34"/>
       <c r="D96" s="32"/>
@@ -10793,7 +10793,7 @@
       <c r="K96" s="34"/>
       <c r="L96" s="8"/>
     </row>
-    <row r="97" spans="2:12" ht="13.2">
+    <row r="97" spans="2:12" ht="13.5">
       <c r="B97" s="34"/>
       <c r="C97" s="34"/>
       <c r="D97" s="32"/>
@@ -10808,7 +10808,7 @@
       <c r="K97" s="34"/>
       <c r="L97" s="8"/>
     </row>
-    <row r="98" spans="2:12" ht="13.2">
+    <row r="98" spans="2:12" ht="13.5">
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="5"/>
@@ -10830,7 +10830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="13.2" hidden="1">
+    <row r="99" spans="2:12" ht="13.5" hidden="1">
       <c r="B99" s="46" t="s">
         <v>32</v>
       </c>
@@ -10848,7 +10848,7 @@
       <c r="K99" s="14"/>
       <c r="L99" s="15"/>
     </row>
-    <row r="100" spans="2:12" ht="13.2">
+    <row r="100" spans="2:12" ht="13.5">
       <c r="B100" s="35"/>
       <c r="C100" s="35"/>
       <c r="D100" s="14"/>
@@ -10862,46 +10862,46 @@
       <c r="L100" s="15"/>
     </row>
     <row r="102" spans="2:12">
-      <c r="B102" s="53" t="s">
+      <c r="B102" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="C102" s="54"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="54"/>
-      <c r="F102" s="54"/>
-      <c r="G102" s="54"/>
-      <c r="H102" s="54"/>
-      <c r="I102" s="55"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="52"/>
     </row>
     <row r="103" spans="2:12">
-      <c r="B103" s="56"/>
-      <c r="C103" s="57"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="57"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="57"/>
-      <c r="I103" s="58"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="54"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="55"/>
     </row>
     <row r="104" spans="2:12">
-      <c r="B104" s="56"/>
-      <c r="C104" s="57"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="57"/>
-      <c r="H104" s="57"/>
-      <c r="I104" s="58"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="54"/>
+      <c r="I104" s="55"/>
     </row>
     <row r="105" spans="2:12">
-      <c r="B105" s="59"/>
-      <c r="C105" s="60"/>
-      <c r="D105" s="60"/>
-      <c r="E105" s="60"/>
-      <c r="F105" s="60"/>
-      <c r="G105" s="60"/>
-      <c r="H105" s="60"/>
-      <c r="I105" s="61"/>
+      <c r="B105" s="56"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="57"/>
+      <c r="E105" s="57"/>
+      <c r="F105" s="57"/>
+      <c r="G105" s="57"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="58"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:L99">
@@ -10916,6 +10916,7 @@
     <mergeCell ref="N20:Q20"/>
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="D80:E80"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="N17:O17"/>
@@ -10928,29 +10929,27 @@
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="N10:O10"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="N10:O10"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="K4:L4"/>
@@ -10963,6 +10962,7 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">

--- a/doc/2、计划/功能点估算简表V1.0.xlsx
+++ b/doc/2、计划/功能点估算简表V1.0.xlsx
@@ -1669,48 +1669,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1738,6 +1696,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1745,6 +1706,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8583,8 +8583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="57" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="57" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -8630,58 +8630,58 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="2:19" ht="13.5">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="40"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="2:19" ht="14.25">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="44"/>
-      <c r="N4" s="47" t="s">
+      <c r="L4" s="60"/>
+      <c r="N4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
     </row>
     <row r="5" spans="2:19" ht="13.5">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
       <c r="L5" s="4" t="s">
         <v>4</v>
       </c>
@@ -8701,14 +8701,14 @@
       </c>
     </row>
     <row r="6" spans="2:19" ht="14.25">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="5" t="s">
         <v>7</v>
       </c>
@@ -8730,28 +8730,28 @@
       <c r="L6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="45">
         <v>1</v>
       </c>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36" t="s">
+      <c r="O6" s="45"/>
+      <c r="P6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="36"/>
+      <c r="Q6" s="45"/>
       <c r="R6" s="5">
         <v>0</v>
       </c>
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="2:19" ht="13.5">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="5" t="s">
         <v>50</v>
       </c>
@@ -8772,14 +8772,14 @@
         <f t="shared" ref="L7:L98" si="0">IF(AND(K7="EI",J7="简单"),3,IF(AND(K7="EI",J7="普通"),4,IF(AND(K7="EI",J7="复杂"),6,IF(AND(K7="EO",J7="简单"),4,IF(AND(K7="EO",J7="普通"),5,IF(AND(K7="EO",J7="复杂"),7,IF(AND(K7="EQ",J7="简单"),3,IF(AND(K7="EQ",J7="普通"),4,IF(AND(K7="EQ",J7="复杂"),6,IF(AND(K7="ILF",J7="简单"),7,IF(AND(K7="ILF",J7="普通"),10,IF(AND(K7="ILF",J7="复杂"),15,IF(AND(K7="EIF",J7="简单"),5,IF(AND(K7="EIF",J7="普通"),7,IF(AND(K7="EIF",J7="复杂"),10,0)))))))))))))))</f>
         <v>7</v>
       </c>
-      <c r="N7" s="36">
+      <c r="N7" s="45">
         <v>2</v>
       </c>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36" t="s">
+      <c r="O7" s="45"/>
+      <c r="P7" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="36"/>
+      <c r="Q7" s="45"/>
       <c r="R7" s="5">
         <v>0</v>
       </c>
@@ -8806,14 +8806,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N8" s="36">
+      <c r="N8" s="45">
         <v>3</v>
       </c>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36" t="s">
+      <c r="O8" s="45"/>
+      <c r="P8" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="36"/>
+      <c r="Q8" s="45"/>
       <c r="R8" s="5">
         <v>3</v>
       </c>
@@ -8840,14 +8840,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="45">
         <v>4</v>
       </c>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36" t="s">
+      <c r="O9" s="45"/>
+      <c r="P9" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="36"/>
+      <c r="Q9" s="45"/>
       <c r="R9" s="5">
         <v>2</v>
       </c>
@@ -8874,14 +8874,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N10" s="36">
+      <c r="N10" s="45">
         <v>5</v>
       </c>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36" t="s">
+      <c r="O10" s="45"/>
+      <c r="P10" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="Q10" s="36"/>
+      <c r="Q10" s="45"/>
       <c r="R10" s="5">
         <v>3</v>
       </c>
@@ -8908,22 +8908,22 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="45">
         <v>6</v>
       </c>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36" t="s">
+      <c r="O11" s="45"/>
+      <c r="P11" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="36"/>
+      <c r="Q11" s="45"/>
       <c r="R11" s="5">
         <v>3</v>
       </c>
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="2:19" ht="13.5">
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="9" t="s">
@@ -8944,14 +8944,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="N12" s="36">
+      <c r="N12" s="45">
         <v>7</v>
       </c>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36" t="s">
+      <c r="O12" s="45"/>
+      <c r="P12" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="36"/>
+      <c r="Q12" s="45"/>
       <c r="R12" s="5">
         <v>5</v>
       </c>
@@ -8978,14 +8978,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N13" s="36">
+      <c r="N13" s="45">
         <v>8</v>
       </c>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36" t="s">
+      <c r="O13" s="45"/>
+      <c r="P13" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="36"/>
+      <c r="Q13" s="45"/>
       <c r="R13" s="5">
         <v>0</v>
       </c>
@@ -9012,14 +9012,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N14" s="36">
+      <c r="N14" s="45">
         <v>9</v>
       </c>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36" t="s">
+      <c r="O14" s="45"/>
+      <c r="P14" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="Q14" s="36"/>
+      <c r="Q14" s="45"/>
       <c r="R14" s="5">
         <v>4</v>
       </c>
@@ -9046,14 +9046,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="45">
         <v>10</v>
       </c>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36" t="s">
+      <c r="O15" s="45"/>
+      <c r="P15" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="Q15" s="36"/>
+      <c r="Q15" s="45"/>
       <c r="R15" s="5">
         <v>1</v>
       </c>
@@ -9080,22 +9080,22 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="45">
         <v>11</v>
       </c>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36" t="s">
+      <c r="O16" s="45"/>
+      <c r="P16" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="Q16" s="36"/>
+      <c r="Q16" s="45"/>
       <c r="R16" s="5">
         <v>2</v>
       </c>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="2:19" ht="13.5">
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
       <c r="F17" s="9" t="s">
@@ -9116,14 +9116,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="N17" s="36">
+      <c r="N17" s="45">
         <v>12</v>
       </c>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36" t="s">
+      <c r="O17" s="45"/>
+      <c r="P17" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="Q17" s="36"/>
+      <c r="Q17" s="45"/>
       <c r="R17" s="5">
         <v>5</v>
       </c>
@@ -9150,14 +9150,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N18" s="36">
+      <c r="N18" s="45">
         <v>13</v>
       </c>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36" t="s">
+      <c r="O18" s="45"/>
+      <c r="P18" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="Q18" s="36"/>
+      <c r="Q18" s="45"/>
       <c r="R18" s="5">
         <v>3</v>
       </c>
@@ -9184,14 +9184,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N19" s="36">
+      <c r="N19" s="45">
         <v>14</v>
       </c>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36" t="s">
+      <c r="O19" s="45"/>
+      <c r="P19" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="36"/>
+      <c r="Q19" s="45"/>
       <c r="R19" s="5">
         <v>4</v>
       </c>
@@ -9218,12 +9218,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N20" s="59" t="s">
+      <c r="N20" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="61"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="48"/>
       <c r="R20" s="5">
         <f>SUM(R6:R19)</f>
         <v>35</v>
@@ -9263,8 +9263,8 @@
       <c r="S21" s="17"/>
     </row>
     <row r="22" spans="2:19" ht="13.5">
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
       <c r="F22" s="9" t="s">
@@ -9394,8 +9394,8 @@
       </c>
     </row>
     <row r="27" spans="2:19" ht="13.5">
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
       <c r="F27" s="9"/>
@@ -10168,8 +10168,8 @@
       </c>
     </row>
     <row r="65" spans="2:12" ht="13.5">
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
       <c r="D65" s="9" t="s">
         <v>82</v>
       </c>
@@ -10466,14 +10466,14 @@
       </c>
     </row>
     <row r="80" spans="2:12" ht="13.5">
-      <c r="B80" s="37" t="s">
+      <c r="B80" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="37"/>
-      <c r="D80" s="36" t="s">
+      <c r="C80" s="51"/>
+      <c r="D80" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="E80" s="36"/>
+      <c r="E80" s="45"/>
       <c r="F80" s="27" t="s">
         <v>130</v>
       </c>
@@ -10592,8 +10592,8 @@
       </c>
     </row>
     <row r="85" spans="2:12" ht="13.5">
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="51"/>
       <c r="D85" s="29"/>
       <c r="E85" s="30"/>
       <c r="F85" s="29"/>
@@ -10831,10 +10831,10 @@
       </c>
     </row>
     <row r="99" spans="2:12" ht="13.5" hidden="1">
-      <c r="B99" s="46" t="s">
+      <c r="B99" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C99" s="46"/>
+      <c r="C99" s="50"/>
       <c r="D99" s="14">
         <f>SUM(L7:L99)</f>
         <v>351</v>
@@ -10862,46 +10862,46 @@
       <c r="L100" s="15"/>
     </row>
     <row r="102" spans="2:12">
-      <c r="B102" s="50" t="s">
+      <c r="B102" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C102" s="51"/>
-      <c r="D102" s="51"/>
-      <c r="E102" s="51"/>
-      <c r="F102" s="51"/>
-      <c r="G102" s="51"/>
-      <c r="H102" s="51"/>
-      <c r="I102" s="52"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="38"/>
     </row>
     <row r="103" spans="2:12">
-      <c r="B103" s="53"/>
-      <c r="C103" s="54"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="54"/>
-      <c r="F103" s="54"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="55"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="41"/>
     </row>
     <row r="104" spans="2:12">
-      <c r="B104" s="53"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="54"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="54"/>
-      <c r="I104" s="55"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="41"/>
     </row>
     <row r="105" spans="2:12">
-      <c r="B105" s="56"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="57"/>
-      <c r="F105" s="57"/>
-      <c r="G105" s="57"/>
-      <c r="H105" s="57"/>
-      <c r="I105" s="58"/>
+      <c r="B105" s="42"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="44"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:L99">
@@ -10910,51 +10910,6 @@
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
   <mergeCells count="53">
-    <mergeCell ref="B102:I105"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:K5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B12:C12"/>
@@ -10963,6 +10918,51 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="B102:I105"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B80:C80"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
